--- a/outputs-HGR-r202-archive/g__Succinivibrio_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Succinivibrio_train.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,23 +795,23 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_1.fasta</t>
+          <t>label_UMGS144_0.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999066369113284</v>
+        <v>0.9999663904902023</v>
       </c>
       <c r="C11" t="n">
-        <v>9.241166256856367e-05</v>
+        <v>2.439026890771172e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>9.514260808452542e-07</v>
+        <v>9.219240867717855e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220394236841981e-14</v>
+        <v>2.220429089823845e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999066369113284</v>
+        <v>0.9999663904902023</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -822,23 +822,23 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_10.fasta</t>
+          <t>label_UMGS144_18.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998025341067196</v>
+        <v>0.9991698449267935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001004568873309515</v>
+        <v>0.0008005290938232386</v>
       </c>
       <c r="D12" t="n">
-        <v>9.700900592722604e-05</v>
+        <v>2.962597936092906e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220336498611861e-14</v>
+        <v>2.220018402678502e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998025341067196</v>
+        <v>0.9991698449267935</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,23 +849,23 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_11.fasta</t>
+          <t>label_UMGS144_6.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995959119989677</v>
+        <v>0.9995699225397187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001556380299718903</v>
+        <v>1.334686849143443e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002484499710382832</v>
+        <v>0.0004167305917675142</v>
       </c>
       <c r="E13" t="n">
-        <v>2.220222007413413e-14</v>
+        <v>2.220209367342802e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9995959119989677</v>
+        <v>0.9995699225397187</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -876,23 +876,23 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_12.fasta</t>
+          <t>label_UMGS144_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9996663346118345</v>
+        <v>0.999753510797995</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002386384050319426</v>
+        <v>0.0002318889631783066</v>
       </c>
       <c r="D14" t="n">
-        <v>9.50269831114347e-05</v>
+        <v>1.460023880459469e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>2.2202610132365e-14</v>
+        <v>2.220310465216098e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996663346118345</v>
+        <v>0.999753510797995</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -903,23 +903,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_2.fasta</t>
+          <t>label_UMGS144_16.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998894549167678</v>
+        <v>0.9995956873144346</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001048271746430735</v>
+        <v>0.0003423378101399276</v>
       </c>
       <c r="D15" t="n">
-        <v>5.717908566849288e-06</v>
+        <v>6.19748754032504e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>2.22038470475504e-14</v>
+        <v>2.220224381104934e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998894549167678</v>
+        <v>0.9995956873144346</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -930,23 +930,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_24.fasta</t>
+          <t>label_UMGS144_20.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9937275221399761</v>
+        <v>0.9990599574447905</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006263090093167038</v>
+        <v>0.0009400226747335244</v>
       </c>
       <c r="D16" t="n">
-        <v>9.38776683471915e-06</v>
+        <v>1.988045377966116e-08</v>
       </c>
       <c r="E16" t="n">
-        <v>2.219802272988189e-14</v>
+        <v>2.219927488704698e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9937275221399761</v>
+        <v>0.9990599574447905</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -957,23 +957,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_27.fasta</t>
+          <t>label_UMGS144_21.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9964230305516147</v>
+        <v>0.9988076646941524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003529156706888719</v>
+        <v>0.001182359874451369</v>
       </c>
       <c r="D17" t="n">
-        <v>4.781274147435482e-05</v>
+        <v>9.975431374107757e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>2.21982161113239e-14</v>
+        <v>2.219807313751741e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9964230305516147</v>
+        <v>0.9988076646941524</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -984,23 +984,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_0.fasta</t>
+          <t>label_UMGS144_29.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999663904902023</v>
+        <v>0.9990619753276526</v>
       </c>
       <c r="C18" t="n">
-        <v>2.439026890771172e-05</v>
+        <v>0.0009232723423555271</v>
       </c>
       <c r="D18" t="n">
-        <v>9.219240867717855e-06</v>
+        <v>1.475232996974166e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220429089823845e-14</v>
+        <v>2.219929632902872e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999663904902023</v>
+        <v>0.9990619753276526</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1011,23 +1011,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_18.fasta</t>
+          <t>label_UMGS144_3.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9991698449267935</v>
+        <v>0.9986300159403606</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0008005290938232386</v>
+        <v>2.643227188503427e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>2.962597936092906e-05</v>
+        <v>0.001367340832428691</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220018402678502e-14</v>
+        <v>2.219808308083022e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9991698449267935</v>
+        <v>0.9986300159403606</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1038,23 +1038,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_6.fasta</t>
+          <t>label_UMGS144_13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9995699225397187</v>
+        <v>0.9998007571768192</v>
       </c>
       <c r="C20" t="n">
-        <v>1.334686849143443e-05</v>
+        <v>0.0001970325082581232</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0004167305917675142</v>
+        <v>2.210314900485849e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220209367342802e-14</v>
+        <v>2.220335513382378e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995699225397187</v>
+        <v>0.9998007571768192</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1065,23 +1065,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_14.fasta</t>
+          <t>label_UMGS144_17.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999753510797995</v>
+        <v>0.9998674336093557</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002318889631783066</v>
+        <v>0.0001313650892675913</v>
       </c>
       <c r="D21" t="n">
-        <v>1.460023880459469e-05</v>
+        <v>1.201301354394061e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220310465216098e-14</v>
+        <v>2.220372489389087e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999753510797995</v>
+        <v>0.9998674336093557</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1092,23 +1092,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_16.fasta</t>
+          <t>label_UMGS144_22.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9995956873144346</v>
+        <v>0.9974650428704618</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003423378101399276</v>
+        <v>0.002534936448279913</v>
       </c>
       <c r="D22" t="n">
-        <v>6.19748754032504e-05</v>
+        <v>2.068123609515624e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>2.220224381104934e-14</v>
+        <v>2.219809351624891e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995956873144346</v>
+        <v>0.9974650428704618</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_20.fasta</t>
+          <t>label_UMGS144_25.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9990599574447905</v>
+        <v>0.9949300524564636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0009400226747335244</v>
+        <v>0.005069192964102954</v>
       </c>
       <c r="D23" t="n">
-        <v>1.988045377966116e-08</v>
+        <v>7.545794110299354e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>2.219927488704698e-14</v>
+        <v>2.21981428398422e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990599574447905</v>
+        <v>0.9949300524564636</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1146,23 +1146,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_21.fasta</t>
+          <t>label_UMGS144_26.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9988076646941524</v>
+        <v>0.9977075511938757</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001182359874451369</v>
+        <v>0.002216796399365331</v>
       </c>
       <c r="D24" t="n">
-        <v>9.975431374107757e-06</v>
+        <v>7.565240673677063e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>2.219807313751741e-14</v>
+        <v>2.219837871769877e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9988076646941524</v>
+        <v>0.9977075511938757</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1173,23 +1173,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_29.fasta</t>
+          <t>label_UMGS144_30.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9990619753276526</v>
+        <v>0.9461786366876782</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0009232723423555271</v>
+        <v>0.05381029459333896</v>
       </c>
       <c r="D25" t="n">
-        <v>1.475232996974166e-05</v>
+        <v>5.537163640475753e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219929632902872e-14</v>
+        <v>5.531555342350447e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9990619753276526</v>
+        <v>0.9461786366876782</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1200,77 +1200,77 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_3.fasta</t>
+          <t>label_UMGS144_32.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9986300159403606</v>
+        <v>1.610771174659818e-09</v>
       </c>
       <c r="C26" t="n">
-        <v>2.643227188503427e-06</v>
+        <v>0.939105894521212</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001367340832428691</v>
+        <v>0.06089410225724558</v>
       </c>
       <c r="E26" t="n">
-        <v>2.219808308083022e-14</v>
+        <v>1.610771174659818e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9986300159403606</v>
+        <v>0.939105894521212</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp000431835</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_13.fasta</t>
+          <t>label_UMGS144_34.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9998007571768192</v>
+        <v>4.748061463350422e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001970325082581232</v>
+        <v>0.8942440950338971</v>
       </c>
       <c r="D27" t="n">
-        <v>2.210314900485849e-06</v>
+        <v>0.1057549553538102</v>
       </c>
       <c r="E27" t="n">
-        <v>2.220335513382378e-14</v>
+        <v>4.748061463350436e-07</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9998007571768192</v>
+        <v>0.8942440950338971</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp000431835</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_17.fasta</t>
+          <t>label_UMGS144_4.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9998674336093557</v>
+        <v>0.9999933721812213</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001313650892675913</v>
+        <v>5.401442692980654e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>1.201301354394061e-06</v>
+        <v>1.226376063492267e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220372489389087e-14</v>
+        <v>2.22044237014495e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9998674336093557</v>
+        <v>0.9999933721812213</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1281,23 +1281,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_22.fasta</t>
+          <t>label_UMGS144_5.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9974650428704618</v>
+        <v>0.9999643209557365</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002534936448279913</v>
+        <v>2.579690898366218e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>2.068123609515624e-08</v>
+        <v>9.882135257706343e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>2.219809351624891e-14</v>
+        <v>2.220426245522126e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9974650428704618</v>
+        <v>0.9999643209557365</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1308,23 +1308,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_25.fasta</t>
+          <t>label_UMGS144_8.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9949300524564636</v>
+        <v>0.999986610227816</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005069192964102954</v>
+        <v>1.289027112759707e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>7.545794110299354e-07</v>
+        <v>4.995010341570843e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>2.21981428398422e-14</v>
+        <v>2.220438616732187e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9949300524564636</v>
+        <v>0.999986610227816</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1335,23 +1335,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_26.fasta</t>
+          <t>label_UMGS144_15.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9977075511938757</v>
+        <v>0.9994556859586012</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002216796399365331</v>
+        <v>0.0005335912977485418</v>
       </c>
       <c r="D31" t="n">
-        <v>7.565240673677063e-05</v>
+        <v>1.072274362798267e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>2.219837871769877e-14</v>
+        <v>2.220144388010891e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9977075511938757</v>
+        <v>0.9994556859586012</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1362,23 +1362,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_30.fasta</t>
+          <t>label_UMGS144_19.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9461786366876782</v>
+        <v>0.9984770434753829</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05381029459333896</v>
+        <v>0.00121741410452597</v>
       </c>
       <c r="D32" t="n">
-        <v>5.537163640475753e-06</v>
+        <v>0.0003055424200688577</v>
       </c>
       <c r="E32" t="n">
-        <v>5.531555342350447e-06</v>
+        <v>2.219862453323785e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9461786366876782</v>
+        <v>0.9984770434753829</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1389,77 +1389,77 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_32.fasta</t>
+          <t>label_UMGS144_23.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.610771174659818e-09</v>
+        <v>0.9955340024789079</v>
       </c>
       <c r="C33" t="n">
-        <v>0.939105894521212</v>
+        <v>0.004348803986870723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06089410225724558</v>
+        <v>0.0001171935341991561</v>
       </c>
       <c r="E33" t="n">
-        <v>1.610771174659818e-09</v>
+        <v>2.219818564759656e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.939105894521212</v>
+        <v>0.9955340024789079</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900548485</t>
+          <t>s__Succinivibrio sp000431835</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_34.fasta</t>
+          <t>label_UMGS144_28.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.748061463350422e-07</v>
+        <v>0.8679234411540033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8942440950338971</v>
+        <v>0.1320765373927946</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1057549553538102</v>
+        <v>2.145317993338086e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>4.748061463350436e-07</v>
+        <v>2.219976691496844e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8942440950338971</v>
+        <v>0.8679234411540033</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900548485</t>
+          <t>s__Succinivibrio sp000431835</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_4.fasta</t>
+          <t>label_UMGS144_31.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999933721812213</v>
+        <v>0.8753863228238541</v>
       </c>
       <c r="C35" t="n">
-        <v>5.401442692980654e-06</v>
+        <v>0.1245515035279975</v>
       </c>
       <c r="D35" t="n">
-        <v>1.226376063492267e-06</v>
+        <v>3.121684521203068e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>2.22044237014495e-14</v>
+        <v>3.095680293635835e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999933721812213</v>
+        <v>0.8753863228238541</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1470,77 +1470,77 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_5.fasta</t>
+          <t>label_UMGS144_33.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999643209557365</v>
+        <v>0.1864828355237752</v>
       </c>
       <c r="C36" t="n">
-        <v>2.579690898366218e-05</v>
+        <v>0.8132572216637836</v>
       </c>
       <c r="D36" t="n">
-        <v>9.882135257706343e-06</v>
+        <v>0.0002599428124192171</v>
       </c>
       <c r="E36" t="n">
-        <v>2.220426245522126e-14</v>
+        <v>2.219793768789211e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9999643209557365</v>
+        <v>0.8132572216637836</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp000431835</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_8.fasta</t>
+          <t>label_UMGS144_35.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.999986610227816</v>
+        <v>0.01974710495567374</v>
       </c>
       <c r="C37" t="n">
-        <v>1.289027112759707e-05</v>
+        <v>0.9780698790597756</v>
       </c>
       <c r="D37" t="n">
-        <v>4.995010341570843e-07</v>
+        <v>0.002183015982886458</v>
       </c>
       <c r="E37" t="n">
-        <v>2.220438616732187e-14</v>
+        <v>1.664305794173265e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>0.999986610227816</v>
+        <v>0.9780698790597756</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp000431835</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_15.fasta</t>
+          <t>label_UMGS144_7.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9994556859586012</v>
+        <v>0.9998579733342329</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0005335912977485418</v>
+        <v>4.132259287646667e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>1.072274362798267e-05</v>
+        <v>0.00010070407286836</v>
       </c>
       <c r="E38" t="n">
-        <v>2.220144388010891e-14</v>
+        <v>2.220367248587482e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9994556859586012</v>
+        <v>0.9998579733342329</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1551,214 +1551,25 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS144_19.fasta</t>
+          <t>label_UMGS144_9.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9984770434753829</v>
+        <v>0.9990376316792888</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00121741410452597</v>
+        <v>7.658697753400525e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0003055424200688577</v>
+        <v>0.0008857813431550486</v>
       </c>
       <c r="E39" t="n">
-        <v>2.219862453323785e-14</v>
+        <v>2.219913891087878e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984770434753829</v>
+        <v>0.9990376316792888</v>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp000431835</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_23.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.9955340024789079</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.004348803986870723</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0001171935341991561</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2.219818564759656e-14</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9955340024789079</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp000431835</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_28.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.8679234411540033</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1320765373927946</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.145317993338086e-08</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.219976691496844e-14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8679234411540033</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp000431835</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_31.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.8753863228238541</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.1245515035279975</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.121684521203068e-05</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3.095680293635835e-05</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.8753863228238541</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp000431835</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_33.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.1864828355237752</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.8132572216637836</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.0002599428124192171</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2.219793768789211e-14</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.8132572216637836</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_35.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.01974710495567374</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.9780698790597756</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.002183015982886458</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1.664305794173265e-12</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.9780698790597756</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_7.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.9998579733342329</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.132259287646667e-05</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.00010070407286836</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.220367248587482e-14</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.9998579733342329</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp000431835</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS144_9.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9990376316792888</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7.658697753400525e-05</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.0008857813431550486</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.219913891087878e-14</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.9990376316792888</v>
-      </c>
-      <c r="G46" t="inlineStr">
         <is>
           <t>s__Succinivibrio sp000431835</t>
         </is>
@@ -1775,7 +1586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,23 +2471,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_102.fasta</t>
+          <t>label_UMGS1092_0.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001271914875031092</v>
+        <v>0.008896211410546766</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9961808260404125</v>
+        <v>0.9911013628735968</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001275351562171413</v>
+        <v>2.425708080602639e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001271907522385022</v>
+        <v>7.775845370560248e-12</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9961808260404125</v>
+        <v>0.9911013628735968</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2687,23 +2498,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_107.fasta</t>
+          <t>label_UMGS1092_1.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.006183149026139798</v>
+        <v>0.0008242542210551614</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9925772535377024</v>
+        <v>0.9768014630259055</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001239597418694949</v>
+        <v>0.0223742827456466</v>
       </c>
       <c r="E34" t="n">
-        <v>1.746276207915609e-11</v>
+        <v>7.392674983347847e-12</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9925772535377024</v>
+        <v>0.9768014630259055</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2714,23 +2525,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_111.fasta</t>
+          <t>label_UMGS1092_103.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03974080801394081</v>
+        <v>0.0006847635226251745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7877218669212801</v>
+        <v>0.9979464696626692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1725372990095116</v>
+        <v>0.0006853140832799832</v>
       </c>
       <c r="E35" t="n">
-        <v>2.605526743682536e-08</v>
+        <v>0.000683452731425597</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7877218669212801</v>
+        <v>0.9979464696626692</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2741,23 +2552,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_12.fasta</t>
+          <t>label_UMGS1092_115.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.281758340225164e-05</v>
+        <v>0.001353964558110674</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9913956690483243</v>
+        <v>0.9986138202139387</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008541513316332513</v>
+        <v>3.221522790893719e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>5.194094676259169e-11</v>
+        <v>4.164212152489037e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9913956690483243</v>
+        <v>0.9986138202139387</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2768,23 +2579,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_120.fasta</t>
+          <t>label_UMGS1092_117.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.721513188366107e-08</v>
+        <v>0.0008833141203440506</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9989208918155233</v>
+        <v>0.9990953291192045</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001079030968886788</v>
+        <v>2.135676040913165e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>4.578709033972665e-13</v>
+        <v>4.228218836389253e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9989208918155233</v>
+        <v>0.9990953291192045</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2795,23 +2606,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_122.fasta</t>
+          <t>label_UMGS1092_130.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.987368811071014e-10</v>
+        <v>0.0008644633826069398</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9733202456975697</v>
+        <v>0.9968490555843658</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02667975399706838</v>
+        <v>0.00228648103273066</v>
       </c>
       <c r="E38" t="n">
-        <v>6.625045125800688e-12</v>
+        <v>2.966690105691469e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9733202456975697</v>
+        <v>0.9968490555843658</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2822,50 +2633,50 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_13.fasta</t>
+          <t>label_UMGS1092_138.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.049916436466141e-06</v>
+        <v>0.002981710381049628</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1269645290568273</v>
+        <v>0.9965031796894656</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8730314210266902</v>
+        <v>0.00051510992925683</v>
       </c>
       <c r="E39" t="n">
-        <v>4.598643405466847e-14</v>
+        <v>2.279685654421682e-13</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8730314210266902</v>
+        <v>0.9965031796894656</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900552905</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_131.fasta</t>
+          <t>label_UMGS1092_14.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.675492786072392e-06</v>
+        <v>0.0008296121717485038</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9939113644464882</v>
+        <v>0.9975165818014721</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006086960033305645</v>
+        <v>0.0008273082687225886</v>
       </c>
       <c r="E40" t="n">
-        <v>2.742015823400935e-11</v>
+        <v>0.0008264977580568704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9939113644464882</v>
+        <v>0.9975165818014721</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2876,23 +2687,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_132.fasta</t>
+          <t>label_UMGS1092_150.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.448271924669166e-06</v>
+        <v>0.0007045478770088365</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9963277312499585</v>
+        <v>0.9923460457353326</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003669820476418143</v>
+        <v>0.006949406387428391</v>
       </c>
       <c r="E41" t="n">
-        <v>1.69867220140483e-12</v>
+        <v>2.301188616910203e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9963277312499585</v>
+        <v>0.9923460457353326</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2903,23 +2714,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_134.fasta</t>
+          <t>label_UMGS1092_2.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.428235413861458e-08</v>
+        <v>0.05377963739154977</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9928272621510342</v>
+        <v>0.9398051944476208</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00717267356618763</v>
+        <v>0.006415168157692008</v>
       </c>
       <c r="E42" t="n">
-        <v>4.240019757955975e-13</v>
+        <v>3.137548186740416e-12</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9928272621510342</v>
+        <v>0.9398051944476208</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2930,23 +2741,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_139.fasta</t>
+          <t>label_UMGS1092_20.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.21994278938377e-14</v>
+        <v>0.00219082647894365</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8995694072560435</v>
+        <v>0.9977936392702722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1004305927439122</v>
+        <v>1.553425004598929e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>2.21994278938377e-14</v>
+        <v>7.381906202204078e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8995694072560435</v>
+        <v>0.9977936392702722</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2957,23 +2768,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_143.fasta</t>
+          <t>label_UMGS1092_21.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.462970712395012e-08</v>
+        <v>0.0245107077257394</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9821592990303469</v>
+        <v>0.7738561944837502</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01784063633947673</v>
+        <v>0.2016330977879179</v>
       </c>
       <c r="E44" t="n">
-        <v>4.693146188547495e-13</v>
+        <v>2.592548118543043e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9821592990303469</v>
+        <v>0.7738561944837502</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2984,23 +2795,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_144.fasta</t>
+          <t>label_UMGS1092_22.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.695292970373127e-07</v>
+        <v>2.152973347172985e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>0.987556089819692</v>
+        <v>0.9999978444985151</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0124431406414034</v>
+        <v>2.528115433387746e-09</v>
       </c>
       <c r="E45" t="n">
-        <v>9.607711953765459e-12</v>
+        <v>2.221793483791948e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.987556089819692</v>
+        <v>0.9999978444985151</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3011,23 +2822,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_149.fasta</t>
+          <t>label_UMGS1092_26.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.350274724971994e-06</v>
+        <v>0.0007979938062949001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.995868306511663</v>
+        <v>0.9990530318836994</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004126343211688113</v>
+        <v>0.000148974309607998</v>
       </c>
       <c r="E46" t="n">
-        <v>1.923796217716652e-12</v>
+        <v>3.976313658131635e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.995868306511663</v>
+        <v>0.9990530318836994</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3038,23 +2849,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_31.fasta</t>
+          <t>label_UMGS1092_29.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0006124088351939468</v>
+        <v>0.03193388630294232</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9981625890912743</v>
+        <v>0.7812112638309237</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0006125932496312439</v>
+        <v>0.1868548498650861</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0006124088239006241</v>
+        <v>1.047844060068603e-12</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9981625890912743</v>
+        <v>0.7812112638309237</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3065,23 +2876,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_33.fasta</t>
+          <t>label_UMGS1092_38.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.007080656828463966</v>
+        <v>5.646055452189992e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0.991092605923078</v>
+        <v>0.9999435181220603</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0018267371668984</v>
+        <v>2.132339565666103e-08</v>
       </c>
       <c r="E48" t="n">
-        <v>8.15596861564833e-11</v>
+        <v>2.223170512838985e-14</v>
       </c>
       <c r="F48" t="n">
-        <v>0.991092605923078</v>
+        <v>0.9999435181220603</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3092,23 +2903,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_35.fasta</t>
+          <t>label_UMGS1092_39.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.551782441717434e-07</v>
+        <v>0.001815251488119996</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7776795192790069</v>
+        <v>0.9981796158476718</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2223203255427116</v>
+        <v>5.132663894047463e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>3.727663995490383e-14</v>
+        <v>3.142048803047264e-13</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7776795192790069</v>
+        <v>0.9981796158476718</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3119,23 +2930,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_41.fasta</t>
+          <t>label_UMGS1092_4.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0008259847465790748</v>
+        <v>0.01382131870195657</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9975206842561578</v>
+        <v>0.9859933038030469</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0008273464652962446</v>
+        <v>0.0001853774915662406</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0008259845319669705</v>
+        <v>3.430290757679912e-12</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9975206842561578</v>
+        <v>0.9859933038030469</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3146,23 +2957,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_45.fasta</t>
+          <t>label_UMGS1092_46.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6.607011308038142e-08</v>
+        <v>0.003340038284970324</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9858624037085609</v>
+        <v>0.9960153892777829</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01413753022099013</v>
+        <v>0.0006445724367051116</v>
       </c>
       <c r="E51" t="n">
-        <v>3.357729697988496e-13</v>
+        <v>5.416281753899824e-13</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9858624037085609</v>
+        <v>0.9960153892777829</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3173,23 +2984,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_49.fasta</t>
+          <t>label_UMGS1092_57.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01324724912869789</v>
+        <v>0.00279380686464399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9864125546256162</v>
+        <v>0.9934952976444329</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0003401961095238803</v>
+        <v>0.003710895490001428</v>
       </c>
       <c r="E52" t="n">
-        <v>1.361619925820168e-10</v>
+        <v>9.21608450769857e-13</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9864125546256162</v>
+        <v>0.9934952976444329</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3200,23 +3011,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_60.fasta</t>
+          <t>label_UMGS1092_58.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.847501035854605e-05</v>
+        <v>0.0006014389810033581</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9953524240648641</v>
+        <v>0.98375670882731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.004629100922442739</v>
+        <v>0.01564185219155721</v>
       </c>
       <c r="E53" t="n">
-        <v>2.334561837641463e-12</v>
+        <v>1.293543353196247e-13</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9953524240648641</v>
+        <v>0.98375670882731</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3227,23 +3038,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_61.fasta</t>
+          <t>label_UMGS1092_62.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002072448671611257</v>
+        <v>0.001351355209800705</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9937806161402333</v>
+        <v>0.9985162534352416</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002074545368879503</v>
+        <v>0.0001323913545692772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002072389819276136</v>
+        <v>3.88278698658444e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9937806161402333</v>
+        <v>0.9985162534352416</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3254,23 +3065,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_71.fasta</t>
+          <t>label_UMGS1092_69.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002238418186448488</v>
+        <v>0.0003627751622190373</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9932759653165755</v>
+        <v>0.9996368457061111</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002247212455788135</v>
+        <v>3.791316372394611e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002238404041188054</v>
+        <v>3.263681160046405e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9932759653165755</v>
+        <v>0.9996368457061111</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3281,23 +3092,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_76.fasta</t>
+          <t>label_UMGS1092_70.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001174360517683015</v>
+        <v>0.0006588598431682101</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9964768686321155</v>
+        <v>0.998060311431948</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001174413062976069</v>
+        <v>0.0006404253158723664</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001174357787225414</v>
+        <v>0.0006404034090115755</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9964768686321155</v>
+        <v>0.998060311431948</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3308,23 +3119,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_8.fasta</t>
+          <t>label_UMGS1092_72.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0002713345405401956</v>
+        <v>0.002262646992006758</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9923681680946148</v>
+        <v>0.9960289483229544</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007360497161784618</v>
+        <v>0.001708404684249214</v>
       </c>
       <c r="E57" t="n">
-        <v>2.030603709229575e-10</v>
+        <v>7.89652973369856e-13</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9923681680946148</v>
+        <v>0.9960289483229544</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3335,23 +3146,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_81.fasta</t>
+          <t>label_UMGS1092_75.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000145383794338743</v>
+        <v>0.008556604954752987</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9942361899169936</v>
+        <v>0.9914432615219655</v>
       </c>
       <c r="D58" t="n">
-        <v>0.005618426279437958</v>
+        <v>1.335232592565226e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>9.229603172014984e-12</v>
+        <v>2.219822390428821e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9942361899169936</v>
+        <v>0.9914432615219655</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3362,23 +3173,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_87.fasta</t>
+          <t>label_UMGS1092_78.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.001465755803633367</v>
+        <v>0.008186755045765808</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9956017405594514</v>
+        <v>0.9870093602828029</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001466747968220874</v>
+        <v>0.004803884671018626</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00146575566869441</v>
+        <v>4.124770045885558e-13</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9956017405594514</v>
+        <v>0.9870093602828029</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3389,23 +3200,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_88.fasta</t>
+          <t>label_UMGS1092_80.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001309051993873985</v>
+        <v>0.02129009518858265</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9879220244574471</v>
+        <v>0.9770366857751002</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0107689235260415</v>
+        <v>0.001673219036109713</v>
       </c>
       <c r="E60" t="n">
-        <v>2.26374501928582e-11</v>
+        <v>2.074454225560336e-13</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9879220244574471</v>
+        <v>0.9770366857751002</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3416,23 +3227,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_91.fasta</t>
+          <t>label_UMGS1092_84.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.001780336599863772</v>
+        <v>0.001857832382657525</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9946583827677714</v>
+        <v>0.9981411785463504</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001780946883917577</v>
+        <v>9.890709606673352e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001780333748447188</v>
+        <v>3.134354184731542e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9946583827677714</v>
+        <v>0.9981411785463504</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3443,23 +3254,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_96.fasta</t>
+          <t>label_UMGS1092_89.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0006508141908366977</v>
+        <v>0.0008627216574762681</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9980466290982143</v>
+        <v>0.9974743152875353</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0006517439108809445</v>
+        <v>0.000836113403287043</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0006508128000681074</v>
+        <v>0.0008268496517013405</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9980466290982143</v>
+        <v>0.9974743152875353</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3470,23 +3281,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_0.fasta</t>
+          <t>label_UMGS1092_93.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.008896211410546766</v>
+        <v>0.01326481227485961</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9911013628735968</v>
+        <v>0.9640196662959942</v>
       </c>
       <c r="D63" t="n">
-        <v>2.425708080602639e-06</v>
+        <v>0.02271552142819292</v>
       </c>
       <c r="E63" t="n">
-        <v>7.775845370560248e-12</v>
+        <v>9.531980448068277e-13</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9911013628735968</v>
+        <v>0.9640196662959942</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3497,23 +3308,23 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_1.fasta</t>
+          <t>label_UMGS1092_94.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0008242542210551614</v>
+        <v>0.0001938444047683068</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9768014630259055</v>
+        <v>0.9998052529911331</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0223742827456466</v>
+        <v>9.026040763895032e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>7.392674983347847e-12</v>
+        <v>2.22220687230359e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9768014630259055</v>
+        <v>0.9998052529911331</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3524,23 +3335,23 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_103.fasta</t>
+          <t>label_UMGS1092_95.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0006847635226251745</v>
+        <v>0.001137097121127831</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9979464696626692</v>
+        <v>0.9988445234047613</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0006853140832799832</v>
+        <v>1.837947408196276e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000683452731425597</v>
+        <v>2.897328840551343e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9979464696626692</v>
+        <v>0.9988445234047613</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3551,23 +3362,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_115.fasta</t>
+          <t>label_UMGS1092_124.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.001353964558110674</v>
+        <v>0.0003471813558062804</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9986138202139387</v>
+        <v>0.9986739997275587</v>
       </c>
       <c r="D66" t="n">
-        <v>3.221522790893719e-05</v>
+        <v>0.0009788189162419207</v>
       </c>
       <c r="E66" t="n">
-        <v>4.164212152489037e-14</v>
+        <v>3.932233160578756e-13</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9986138202139387</v>
+        <v>0.9986739997275587</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3578,23 +3389,23 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_117.fasta</t>
+          <t>label_UMGS1092_129.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0008833141203440506</v>
+        <v>1.092336189000428e-06</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9990953291192045</v>
+        <v>0.997626389151588</v>
       </c>
       <c r="D67" t="n">
-        <v>2.135676040913165e-05</v>
+        <v>0.002372518512172673</v>
       </c>
       <c r="E67" t="n">
-        <v>4.228218836389253e-14</v>
+        <v>5.042460106403566e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9990953291192045</v>
+        <v>0.997626389151588</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3605,23 +3416,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_130.fasta</t>
+          <t>label_UMGS1092_135.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0008644633826069398</v>
+        <v>0.0001215144508091462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9968490555843658</v>
+        <v>0.9952489315191585</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00228648103273066</v>
+        <v>0.004629554029535935</v>
       </c>
       <c r="E68" t="n">
-        <v>2.966690105691469e-13</v>
+        <v>4.965216265324515e-13</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9968490555843658</v>
+        <v>0.9952489315191585</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3632,23 +3443,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_138.fasta</t>
+          <t>label_UMGS1092_136.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002981710381049628</v>
+        <v>2.722138081820747e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9965031796894656</v>
+        <v>0.9987277911453576</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00051510992925683</v>
+        <v>0.001244987473553792</v>
       </c>
       <c r="E69" t="n">
-        <v>2.279685654421682e-13</v>
+        <v>2.70446187740831e-13</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9965031796894656</v>
+        <v>0.9987277911453576</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3659,23 +3470,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_14.fasta</t>
+          <t>label_UMGS1092_140.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0008296121717485038</v>
+        <v>3.601292079143217e-08</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9975165818014721</v>
+        <v>0.9999895345731458</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0008273082687225886</v>
+        <v>1.042941391112123e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0008264977580568704</v>
+        <v>2.222010901247237e-14</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9975165818014721</v>
+        <v>0.9999895345731458</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3686,23 +3497,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_150.fasta</t>
+          <t>label_UMGS1092_141.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0007045478770088365</v>
+        <v>2.367335917115849e-06</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9923460457353326</v>
+        <v>0.9924151233703391</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006949406387428391</v>
+        <v>0.007582509293706349</v>
       </c>
       <c r="E71" t="n">
-        <v>2.301188616910203e-13</v>
+        <v>3.740265037720118e-14</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9923460457353326</v>
+        <v>0.9924151233703391</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3713,23 +3524,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_2.fasta</t>
+          <t>label_UMGS1092_146.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.05377963739154977</v>
+        <v>0.0001409277646327055</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9398051944476208</v>
+        <v>0.9973049328454203</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006415168157692008</v>
+        <v>0.002554139389488389</v>
       </c>
       <c r="E72" t="n">
-        <v>3.137548186740416e-12</v>
+        <v>4.584998224311353e-13</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9398051944476208</v>
+        <v>0.9973049328454203</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3740,23 +3551,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_20.fasta</t>
+          <t>label_UMGS1092_147.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00219082647894365</v>
+        <v>4.596820183429053e-08</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9977936392702722</v>
+        <v>0.9949621203913467</v>
       </c>
       <c r="D73" t="n">
-        <v>1.553425004598929e-05</v>
+        <v>0.005037833640429108</v>
       </c>
       <c r="E73" t="n">
-        <v>7.381906202204078e-13</v>
+        <v>2.21981420914083e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9977936392702722</v>
+        <v>0.9949621203913467</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3767,23 +3578,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_21.fasta</t>
+          <t>label_UMGS1092_148.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0245107077257394</v>
+        <v>5.53325698787526e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7738561944837502</v>
+        <v>0.9971561073233486</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2016330977879179</v>
+        <v>0.002838359419612308</v>
       </c>
       <c r="E74" t="n">
-        <v>2.592548118543043e-12</v>
+        <v>5.129867234802743e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7738561944837502</v>
+        <v>0.9971561073233486</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3794,23 +3605,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_22.fasta</t>
+          <t>label_UMGS1092_151.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2.152973347172985e-06</v>
+        <v>2.337700085397384e-08</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999978444985151</v>
+        <v>0.9988749710631125</v>
       </c>
       <c r="D75" t="n">
-        <v>2.528115433387746e-09</v>
+        <v>0.001125005559864535</v>
       </c>
       <c r="E75" t="n">
-        <v>2.221793483791948e-14</v>
+        <v>2.2247635285308e-14</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9999978444985151</v>
+        <v>0.9988749710631125</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3821,23 +3632,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_26.fasta</t>
+          <t>label_UMGS1092_153.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0007979938062949001</v>
+        <v>1.103635698309517e-07</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9990530318836994</v>
+        <v>0.9878285642345689</v>
       </c>
       <c r="D76" t="n">
-        <v>0.000148974309607998</v>
+        <v>0.01217132540183916</v>
       </c>
       <c r="E76" t="n">
-        <v>3.976313658131635e-13</v>
+        <v>2.219826004623557e-14</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9990530318836994</v>
+        <v>0.9878285642345689</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3848,23 +3659,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_29.fasta</t>
+          <t>label_UMGS1092_16.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.03193388630294232</v>
+        <v>0.001773017618614943</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7812112638309237</v>
+        <v>0.9849155785820612</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1868548498650861</v>
+        <v>0.01331140379819483</v>
       </c>
       <c r="E77" t="n">
-        <v>1.047844060068603e-12</v>
+        <v>1.129049111074172e-12</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7812112638309237</v>
+        <v>0.9849155785820612</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3875,23 +3686,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_38.fasta</t>
+          <t>label_UMGS1092_17.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.646055452189992e-05</v>
+        <v>0.0005883154864218381</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9999435181220603</v>
+        <v>0.9982362051053654</v>
       </c>
       <c r="D78" t="n">
-        <v>2.132339565666103e-08</v>
+        <v>0.0005880269235440772</v>
       </c>
       <c r="E78" t="n">
-        <v>2.223170512838985e-14</v>
+        <v>0.00058745248466859</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999435181220603</v>
+        <v>0.9982362051053654</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3902,23 +3713,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_39.fasta</t>
+          <t>label_UMGS1092_23.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001815251488119996</v>
+        <v>3.119895412176206e-08</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9981796158476718</v>
+        <v>0.9999999681066631</v>
       </c>
       <c r="D79" t="n">
-        <v>5.132663894047463e-06</v>
+        <v>6.943605830145602e-10</v>
       </c>
       <c r="E79" t="n">
-        <v>3.142048803047264e-13</v>
+        <v>2.220662003370597e-14</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9981796158476718</v>
+        <v>0.9999999681066631</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3929,23 +3740,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_4.fasta</t>
+          <t>label_UMGS1092_25.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01382131870195657</v>
+        <v>0.00200001504886931</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9859933038030469</v>
+        <v>0.990085288957322</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0001853774915662406</v>
+        <v>0.007914695992501676</v>
       </c>
       <c r="E80" t="n">
-        <v>3.430290757679912e-12</v>
+        <v>1.307007417325897e-12</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9859933038030469</v>
+        <v>0.990085288957322</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3956,23 +3767,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_46.fasta</t>
+          <t>label_UMGS1092_30.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.003340038284970324</v>
+        <v>0.003483087139155029</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9960153892777829</v>
+        <v>0.9951377995110956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0006445724367051116</v>
+        <v>0.001379113346623199</v>
       </c>
       <c r="E81" t="n">
-        <v>5.416281753899824e-13</v>
+        <v>3.126292496451689e-12</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9960153892777829</v>
+        <v>0.9951377995110956</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3983,23 +3794,23 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_57.fasta</t>
+          <t>label_UMGS1092_32.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.00279380686464399</v>
+        <v>0.000555479190341207</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9934952976444329</v>
+        <v>0.9983391091511015</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003710895490001428</v>
+        <v>0.0005528952850443475</v>
       </c>
       <c r="E82" t="n">
-        <v>9.21608450769857e-13</v>
+        <v>0.0005525163735131238</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9934952976444329</v>
+        <v>0.9983391091511015</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4010,23 +3821,23 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_58.fasta</t>
+          <t>label_UMGS1092_34.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0006014389810033581</v>
+        <v>0.1726451362648051</v>
       </c>
       <c r="C83" t="n">
-        <v>0.98375670882731</v>
+        <v>0.8273500208220108</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01564185219155721</v>
+        <v>4.842913157188362e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>1.293543353196247e-13</v>
+        <v>2.685785272509809e-14</v>
       </c>
       <c r="F83" t="n">
-        <v>0.98375670882731</v>
+        <v>0.8273500208220108</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4037,23 +3848,23 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_62.fasta</t>
+          <t>label_UMGS1092_36.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.001351355209800705</v>
+        <v>0.001528314138084289</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9985162534352416</v>
+        <v>0.9984633188783075</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0001323913545692772</v>
+        <v>8.366983508386664e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>3.88278698658444e-13</v>
+        <v>9.98630819364758e-14</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9985162534352416</v>
+        <v>0.9984633188783075</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4064,23 +3875,23 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_69.fasta</t>
+          <t>label_UMGS1092_37.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0003627751622190373</v>
+        <v>0.0003293480086200927</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9996368457061111</v>
+        <v>0.9974769240643728</v>
       </c>
       <c r="D85" t="n">
-        <v>3.791316372394611e-07</v>
+        <v>0.002193727926457356</v>
       </c>
       <c r="E85" t="n">
-        <v>3.263681160046405e-14</v>
+        <v>5.497517468557541e-13</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9996368457061111</v>
+        <v>0.9974769240643728</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4091,23 +3902,23 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_70.fasta</t>
+          <t>label_UMGS1092_44.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0006588598431682101</v>
+        <v>1.940394600422502e-07</v>
       </c>
       <c r="C86" t="n">
-        <v>0.998060311431948</v>
+        <v>0.9999997815950197</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0006404253158723664</v>
+        <v>2.436549816298817e-08</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0006404034090115755</v>
+        <v>2.221492032370343e-14</v>
       </c>
       <c r="F86" t="n">
-        <v>0.998060311431948</v>
+        <v>0.9999997815950197</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4118,23 +3929,23 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_72.fasta</t>
+          <t>label_UMGS1092_50.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.002262646992006758</v>
+        <v>0.002735935187529378</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9960289483229544</v>
+        <v>0.9968625194754511</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001708404684249214</v>
+        <v>0.0004015453359112518</v>
       </c>
       <c r="E87" t="n">
-        <v>7.89652973369856e-13</v>
+        <v>1.108116821100953e-12</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9960289483229544</v>
+        <v>0.9968625194754511</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4145,23 +3956,23 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_75.fasta</t>
+          <t>label_UMGS1092_52.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.008556604954752987</v>
+        <v>0.001495738194514362</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9914432615219655</v>
+        <v>0.9930623618337573</v>
       </c>
       <c r="D88" t="n">
-        <v>1.335232592565226e-07</v>
+        <v>0.005441899970994958</v>
       </c>
       <c r="E88" t="n">
-        <v>2.219822390428821e-14</v>
+        <v>7.333955098208181e-13</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9914432615219655</v>
+        <v>0.9930623618337573</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4172,23 +3983,23 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_78.fasta</t>
+          <t>label_UMGS1092_63.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.008186755045765808</v>
+        <v>6.087492650544003e-08</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9870093602828029</v>
+        <v>0.9999999199224928</v>
       </c>
       <c r="D89" t="n">
-        <v>0.004803884671018626</v>
+        <v>1.920255838810999e-08</v>
       </c>
       <c r="E89" t="n">
-        <v>4.124770045885558e-13</v>
+        <v>2.221379715556933e-14</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9870093602828029</v>
+        <v>0.9999999199224928</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4199,23 +4010,23 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_80.fasta</t>
+          <t>label_UMGS1092_74.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02129009518858265</v>
+        <v>9.527996172410735e-07</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9770366857751002</v>
+        <v>0.9992116252164958</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001673219036109713</v>
+        <v>0.0007874219838369293</v>
       </c>
       <c r="E90" t="n">
-        <v>2.074454225560336e-13</v>
+        <v>5.008321580090544e-14</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9770366857751002</v>
+        <v>0.9992116252164958</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4226,23 +4037,23 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_84.fasta</t>
+          <t>label_UMGS1092_77.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001857832382657525</v>
+        <v>0.0006575637083234989</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9981411785463504</v>
+        <v>0.9980281317243188</v>
       </c>
       <c r="D91" t="n">
-        <v>9.890709606673352e-07</v>
+        <v>0.0006579197181512472</v>
       </c>
       <c r="E91" t="n">
-        <v>3.134354184731542e-14</v>
+        <v>0.0006563848492065951</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9981411785463504</v>
+        <v>0.9980281317243188</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4253,23 +4064,23 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_89.fasta</t>
+          <t>label_UMGS1092_82.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0008627216574762681</v>
+        <v>0.001967089024950811</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9974743152875353</v>
+        <v>0.9940988420825372</v>
       </c>
       <c r="D92" t="n">
-        <v>0.000836113403287043</v>
+        <v>0.001967133986273286</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0008268496517013405</v>
+        <v>0.001966934906238922</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9974743152875353</v>
+        <v>0.9940988420825372</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4280,23 +4091,23 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_93.fasta</t>
+          <t>label_UMGS1092_83.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01326481227485961</v>
+        <v>0.0006431590488295484</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9640196662959942</v>
+        <v>0.9980607617316222</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02271552142819292</v>
+        <v>0.0006539705052215715</v>
       </c>
       <c r="E93" t="n">
-        <v>9.531980448068277e-13</v>
+        <v>0.0006421087143266883</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9640196662959942</v>
+        <v>0.9980607617316222</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4307,23 +4118,23 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_94.fasta</t>
+          <t>label_UMGS1092_86.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0001938444047683068</v>
+        <v>9.796567279401798e-09</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9998052529911331</v>
+        <v>0.9999985208943347</v>
       </c>
       <c r="D94" t="n">
-        <v>9.026040763895032e-07</v>
+        <v>1.469309075844668e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>2.22220687230359e-14</v>
+        <v>2.221091343318231e-14</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9998052529911331</v>
+        <v>0.9999985208943347</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4334,23 +4145,23 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_95.fasta</t>
+          <t>label_UMGS1092_90.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.001137097121127831</v>
+        <v>4.944428917787361e-08</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9988445234047613</v>
+        <v>0.9999989870061762</v>
       </c>
       <c r="D95" t="n">
-        <v>1.837947408196276e-05</v>
+        <v>9.635495123743562e-07</v>
       </c>
       <c r="E95" t="n">
-        <v>2.897328840551343e-14</v>
+        <v>2.221225058924469e-14</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9988445234047613</v>
+        <v>0.9999989870061762</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4361,23 +4172,23 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_124.fasta</t>
+          <t>label_UMGS1092_10.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0003471813558062804</v>
+        <v>0.000560015969700532</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9986739997275587</v>
+        <v>0.9983155388544706</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0009788189162419207</v>
+        <v>0.0005644292061282172</v>
       </c>
       <c r="E96" t="n">
-        <v>3.932233160578756e-13</v>
+        <v>0.0005600159697005356</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9986739997275587</v>
+        <v>0.9983155388544706</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4388,23 +4199,23 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_129.fasta</t>
+          <t>label_UMGS1092_100.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.092336189000428e-06</v>
+        <v>2.222693255591203e-14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.997626389151588</v>
+        <v>0.9999718594625044</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002372518512172673</v>
+        <v>2.81405374510563e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>5.042460106403566e-14</v>
+        <v>2.222693255591203e-14</v>
       </c>
       <c r="F97" t="n">
-        <v>0.997626389151588</v>
+        <v>0.9999718594625044</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -4415,23 +4226,23 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_135.fasta</t>
+          <t>label_UMGS1092_101.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0001215144508091462</v>
+        <v>2.22049037612133e-14</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9952489315191585</v>
+        <v>0.9999980361022613</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004629554029535935</v>
+        <v>1.963897694269463e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>4.965216265324515e-13</v>
+        <v>2.220490376121331e-14</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9952489315191585</v>
+        <v>0.9999980361022613</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4442,23 +4253,23 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_136.fasta</t>
+          <t>label_UMGS1092_104.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.722138081820747e-05</v>
+        <v>2.092930781522565e-13</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9987277911453576</v>
+        <v>0.9960573233542702</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001244987473553792</v>
+        <v>0.003942676645311032</v>
       </c>
       <c r="E99" t="n">
-        <v>2.70446187740831e-13</v>
+        <v>2.092930781522593e-13</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9987277911453576</v>
+        <v>0.9960573233542702</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4469,23 +4280,23 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_140.fasta</t>
+          <t>label_UMGS1092_11.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.601292079143217e-08</v>
+        <v>4.449033322339251e-10</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9999895345731458</v>
+        <v>0.9905056787730971</v>
       </c>
       <c r="D100" t="n">
-        <v>1.042941391112123e-05</v>
+        <v>0.009494320337096199</v>
       </c>
       <c r="E100" t="n">
-        <v>2.222010901247237e-14</v>
+        <v>4.449033322339328e-10</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9999895345731458</v>
+        <v>0.9905056787730971</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4496,23 +4307,23 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_141.fasta</t>
+          <t>label_UMGS1092_110.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.367335917115849e-06</v>
+        <v>2.223471311290393e-14</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9924151233703391</v>
+        <v>0.9982014409859227</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007582509293706349</v>
+        <v>0.001798559014032805</v>
       </c>
       <c r="E101" t="n">
-        <v>3.740265037720118e-14</v>
+        <v>2.223471311290393e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9924151233703391</v>
+        <v>0.9982014409859227</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4523,23 +4334,23 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_146.fasta</t>
+          <t>label_UMGS1092_113.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0001409277646327055</v>
+        <v>2.221213956607384e-14</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9973049328454203</v>
+        <v>0.9998737294173418</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002554139389488389</v>
+        <v>0.0001262705826138593</v>
       </c>
       <c r="E102" t="n">
-        <v>4.584998224311353e-13</v>
+        <v>2.221213956607384e-14</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9973049328454203</v>
+        <v>0.9998737294173418</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4550,23 +4361,23 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_147.fasta</t>
+          <t>label_UMGS1092_114.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.596820183429053e-08</v>
+        <v>2.221112501903939e-14</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9949621203913467</v>
+        <v>0.9999674235653354</v>
       </c>
       <c r="D103" t="n">
-        <v>0.005037833640429108</v>
+        <v>3.257643462015746e-05</v>
       </c>
       <c r="E103" t="n">
-        <v>2.21981420914083e-14</v>
+        <v>2.221112501903939e-14</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9949621203913467</v>
+        <v>0.9999674235653354</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4577,23 +4388,23 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_148.fasta</t>
+          <t>label_UMGS1092_118.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.53325698787526e-06</v>
+        <v>2.220977298956956e-14</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9971561073233486</v>
+        <v>0.9999840173394586</v>
       </c>
       <c r="D104" t="n">
-        <v>0.002838359419612308</v>
+        <v>1.598266049705114e-05</v>
       </c>
       <c r="E104" t="n">
-        <v>5.129867234802743e-14</v>
+        <v>2.220977298956956e-14</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9971561073233486</v>
+        <v>0.9999840173394586</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4604,23 +4415,23 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_151.fasta</t>
+          <t>label_UMGS1092_119.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.337700085397384e-08</v>
+        <v>2.5494799120712e-14</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9988749710631125</v>
+        <v>0.9662185509747512</v>
       </c>
       <c r="D105" t="n">
-        <v>0.001125005559864535</v>
+        <v>0.0337814490251977</v>
       </c>
       <c r="E105" t="n">
-        <v>2.2247635285308e-14</v>
+        <v>2.549479912071198e-14</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9988749710631125</v>
+        <v>0.9662185509747512</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4631,23 +4442,23 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_153.fasta</t>
+          <t>label_UMGS1092_123.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.103635698309517e-07</v>
+        <v>2.221021575029008e-14</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9878285642345689</v>
+        <v>0.9999224016543795</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01217132540183916</v>
+        <v>7.759834557605365e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>2.219826004623557e-14</v>
+        <v>2.221021575029008e-14</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9878285642345689</v>
+        <v>0.9999224016543795</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4658,23 +4469,23 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_16.fasta</t>
+          <t>label_UMGS1092_126.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.001773017618614943</v>
+        <v>3.043243724306325e-14</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9849155785820612</v>
+        <v>0.5015485249442312</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01331140379819483</v>
+        <v>0.498451475055708</v>
       </c>
       <c r="E107" t="n">
-        <v>1.129049111074172e-12</v>
+        <v>3.043243724306325e-14</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9849155785820612</v>
+        <v>0.5015485249442312</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4685,23 +4496,23 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_17.fasta</t>
+          <t>label_UMGS1092_133.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0005883154864218381</v>
+        <v>4.42112147462867e-14</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9982362051053654</v>
+        <v>0.9864170430363598</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0005880269235440772</v>
+        <v>0.01358295696355179</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00058745248466859</v>
+        <v>4.42112147462866e-14</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9982362051053654</v>
+        <v>0.9864170430363598</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4712,23 +4523,23 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_23.fasta</t>
+          <t>label_UMGS1092_145.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.119895412176206e-08</v>
+        <v>6.64008227423076e-13</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9999999681066631</v>
+        <v>0.9928943803954616</v>
       </c>
       <c r="D109" t="n">
-        <v>6.943605830145602e-10</v>
+        <v>0.007105619603210452</v>
       </c>
       <c r="E109" t="n">
-        <v>2.220662003370597e-14</v>
+        <v>6.640082274230814e-13</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9999999681066631</v>
+        <v>0.9928943803954616</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4739,23 +4550,23 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_25.fasta</t>
+          <t>label_UMGS1092_15.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.00200001504886931</v>
+        <v>0.0007125534599571418</v>
       </c>
       <c r="C110" t="n">
-        <v>0.990085288957322</v>
+        <v>0.997857512701064</v>
       </c>
       <c r="D110" t="n">
-        <v>0.007914695992501676</v>
+        <v>0.0007173803790216789</v>
       </c>
       <c r="E110" t="n">
-        <v>1.307007417325897e-12</v>
+        <v>0.0007125534599571466</v>
       </c>
       <c r="F110" t="n">
-        <v>0.990085288957322</v>
+        <v>0.997857512701064</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4766,23 +4577,23 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_30.fasta</t>
+          <t>label_UMGS1092_152.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.003483087139155029</v>
+        <v>2.22091997326046e-14</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9951377995110956</v>
+        <v>0.9999912363118149</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001379113346623199</v>
+        <v>8.763688140718199e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>3.126292496451689e-12</v>
+        <v>2.22091997326046e-14</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9951377995110956</v>
+        <v>0.9999912363118149</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4793,23 +4604,23 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_32.fasta</t>
+          <t>label_UMGS1092_18.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.000555479190341207</v>
+        <v>0.0005464410467486487</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9983391091511015</v>
+        <v>0.9983546444273128</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0005528952850443475</v>
+        <v>0.0005524734791897493</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0005525163735131238</v>
+        <v>0.0005464410467487342</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9983391091511015</v>
+        <v>0.9983546444273128</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4820,23 +4631,23 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_34.fasta</t>
+          <t>label_UMGS1092_19.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1726451362648051</v>
+        <v>2.223907849968394e-14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8273500208220108</v>
+        <v>0.9998056921571222</v>
       </c>
       <c r="D113" t="n">
-        <v>4.842913157188362e-06</v>
+        <v>0.000194307842833325</v>
       </c>
       <c r="E113" t="n">
-        <v>2.685785272509809e-14</v>
+        <v>2.223907849968394e-14</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8273500208220108</v>
+        <v>0.9998056921571222</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4847,23 +4658,23 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_36.fasta</t>
+          <t>label_UMGS1092_27.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.001528314138084289</v>
+        <v>3.136447693622049e-14</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9984633188783075</v>
+        <v>0.999769451536544</v>
       </c>
       <c r="D114" t="n">
-        <v>8.366983508386664e-06</v>
+        <v>0.0002305484633934032</v>
       </c>
       <c r="E114" t="n">
-        <v>9.98630819364758e-14</v>
+        <v>3.136447693622074e-14</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9984633188783075</v>
+        <v>0.999769451536544</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4874,23 +4685,23 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_37.fasta</t>
+          <t>label_UMGS1092_3.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0003293480086200927</v>
+        <v>9.688144209666459e-10</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9974769240643728</v>
+        <v>0.9284945017479597</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002193727926457356</v>
+        <v>0.07150549631441164</v>
       </c>
       <c r="E115" t="n">
-        <v>5.497517468557541e-13</v>
+        <v>9.68814420966669e-10</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9974769240643728</v>
+        <v>0.9284945017479597</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4901,23 +4712,23 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_44.fasta</t>
+          <t>label_UMGS1092_43.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.940394600422502e-07</v>
+        <v>2.221109813894378e-14</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9999997815950197</v>
+        <v>0.9999984826876268</v>
       </c>
       <c r="D116" t="n">
-        <v>2.436549816298817e-08</v>
+        <v>1.517312328797041e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>2.221492032370343e-14</v>
+        <v>2.221109813894379e-14</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9999997815950197</v>
+        <v>0.9999984826876268</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4928,23 +4739,23 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_50.fasta</t>
+          <t>label_UMGS1092_47.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.002735935187529378</v>
+        <v>0.0006886428731495356</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9968625194754511</v>
+        <v>0.9979340288141687</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0004015453359112518</v>
+        <v>0.0006886854395321296</v>
       </c>
       <c r="E117" t="n">
-        <v>1.108116821100953e-12</v>
+        <v>0.0006886428731495436</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9968625194754511</v>
+        <v>0.9979340288141687</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4955,23 +4766,23 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_52.fasta</t>
+          <t>label_UMGS1092_5.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.001495738194514362</v>
+        <v>7.357889341871353e-14</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9930623618337573</v>
+        <v>0.9929325083430861</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005441899970994958</v>
+        <v>0.007067491656766625</v>
       </c>
       <c r="E118" t="n">
-        <v>7.333955098208181e-13</v>
+        <v>7.35788934187137e-14</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9930623618337573</v>
+        <v>0.9929325083430861</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4982,23 +4793,23 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_63.fasta</t>
+          <t>label_UMGS1092_54.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6.087492650544003e-08</v>
+        <v>0.001369181137424058</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9999999199224928</v>
+        <v>0.9958674114205364</v>
       </c>
       <c r="D119" t="n">
-        <v>1.920255838810999e-08</v>
+        <v>0.001394226304615571</v>
       </c>
       <c r="E119" t="n">
-        <v>2.221379715556933e-14</v>
+        <v>0.00136918113742407</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9999999199224928</v>
+        <v>0.9958674114205364</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5009,23 +4820,23 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_74.fasta</t>
+          <t>label_UMGS1092_65.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>9.527996172410735e-07</v>
+        <v>2.222568428918105e-14</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9992116252164958</v>
+        <v>0.9999808164233159</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0007874219838369293</v>
+        <v>1.918357663972486e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>5.008321580090544e-14</v>
+        <v>2.222568428918105e-14</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9992116252164958</v>
+        <v>0.9999808164233159</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -5036,23 +4847,23 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_77.fasta</t>
+          <t>label_UMGS1092_66.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0006575637083234989</v>
+        <v>2.710832336533377e-13</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9980281317243188</v>
+        <v>0.9920917980654541</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0006579197181512472</v>
+        <v>0.007908201934003795</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0006563848492065951</v>
+        <v>2.710832336533394e-13</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9980281317243188</v>
+        <v>0.9920917980654541</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -5063,23 +4874,23 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_82.fasta</t>
+          <t>label_UMGS1092_7.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.001967089024950811</v>
+        <v>3.21995136640501e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9940988420825372</v>
+        <v>0.9417262999401811</v>
       </c>
       <c r="D122" t="n">
-        <v>0.001967133986273286</v>
+        <v>0.05827363566079158</v>
       </c>
       <c r="E122" t="n">
-        <v>0.001966934906238922</v>
+        <v>3.219951366405017e-08</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9940988420825372</v>
+        <v>0.9417262999401811</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -5090,23 +4901,23 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_83.fasta</t>
+          <t>label_UMGS1092_85.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0006431590488295484</v>
+        <v>0.001027261176228185</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9980607617316222</v>
+        <v>0.996898129737379</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0006539705052215715</v>
+        <v>0.001047347910164622</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0006421087143266883</v>
+        <v>0.001027261176228193</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9980607617316222</v>
+        <v>0.996898129737379</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -5117,23 +4928,23 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_86.fasta</t>
+          <t>label_UMGS1092_98.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9.796567279401798e-09</v>
+        <v>7.350539784123224e-14</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9999985208943347</v>
+        <v>0.9990294628366926</v>
       </c>
       <c r="D124" t="n">
-        <v>1.469309075844668e-06</v>
+        <v>0.0009705371631603846</v>
       </c>
       <c r="E124" t="n">
-        <v>2.221091343318231e-14</v>
+        <v>7.350539784123348e-14</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9999985208943347</v>
+        <v>0.9990294628366926</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -5144,23 +4955,23 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_90.fasta</t>
+          <t>label_UMGS1092_99.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4.944428917787361e-08</v>
+        <v>2.221597775847193e-14</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9999989870061762</v>
+        <v>0.9999945883882271</v>
       </c>
       <c r="D125" t="n">
-        <v>9.635495123743562e-07</v>
+        <v>5.411611728512733e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>2.221225058924469e-14</v>
+        <v>2.221597775847193e-14</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9999989870061762</v>
+        <v>0.9999945883882271</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -5171,23 +4982,23 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_10.fasta</t>
+          <t>label_UMGS1092_105.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.000560015969700532</v>
+        <v>1.221801322895292e-07</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9983155388544706</v>
+        <v>0.9993919254954551</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0005644292061282172</v>
+        <v>0.0006079523243561851</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0005600159697005356</v>
+        <v>5.655865396922301e-14</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9983155388544706</v>
+        <v>0.9993919254954551</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -5198,23 +5009,23 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_100.fasta</t>
+          <t>label_UMGS1092_106.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.222693255591203e-14</v>
+        <v>2.556900747547098e-08</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9999718594625044</v>
+        <v>0.9549753312166465</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81405374510563e-05</v>
+        <v>0.04502464321432341</v>
       </c>
       <c r="E127" t="n">
-        <v>2.222693255591203e-14</v>
+        <v>2.258442927141145e-14</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9999718594625044</v>
+        <v>0.9549753312166465</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -5225,23 +5036,23 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_101.fasta</t>
+          <t>label_UMGS1092_108.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.22049037612133e-14</v>
+        <v>0.002795930854547363</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9999980361022613</v>
+        <v>0.9923606855406351</v>
       </c>
       <c r="D128" t="n">
-        <v>1.963897694269463e-06</v>
+        <v>0.004843383594337809</v>
       </c>
       <c r="E128" t="n">
-        <v>2.220490376121331e-14</v>
+        <v>1.047980750935064e-11</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9999980361022613</v>
+        <v>0.9923606855406351</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5252,23 +5063,23 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_104.fasta</t>
+          <t>label_UMGS1092_109.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.092930781522565e-13</v>
+        <v>8.63275056593455e-08</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9960573233542702</v>
+        <v>0.9930188527274869</v>
       </c>
       <c r="D129" t="n">
-        <v>0.003942676645311032</v>
+        <v>0.006981060944985149</v>
       </c>
       <c r="E129" t="n">
-        <v>2.092930781522593e-13</v>
+        <v>2.219814277905659e-14</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9960573233542702</v>
+        <v>0.9930188527274869</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -5279,23 +5090,23 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_11.fasta</t>
+          <t>label_UMGS1092_112.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.449033322339251e-10</v>
+        <v>0.0003488755859590114</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9905056787730971</v>
+        <v>0.9962980648788342</v>
       </c>
       <c r="D130" t="n">
-        <v>0.009494320337096199</v>
+        <v>0.003353059534003162</v>
       </c>
       <c r="E130" t="n">
-        <v>4.449033322339328e-10</v>
+        <v>1.203689581886353e-12</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9905056787730971</v>
+        <v>0.9962980648788342</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5306,23 +5117,23 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_110.fasta</t>
+          <t>label_UMGS1092_116.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2.223471311290393e-14</v>
+        <v>4.351070409102317e-08</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9982014409859227</v>
+        <v>0.9984234187509375</v>
       </c>
       <c r="D131" t="n">
-        <v>0.001798559014032805</v>
+        <v>0.001576537738336192</v>
       </c>
       <c r="E131" t="n">
-        <v>2.223471311290393e-14</v>
+        <v>2.222369720467047e-14</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9982014409859227</v>
+        <v>0.9984234187509375</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5333,23 +5144,23 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_113.fasta</t>
+          <t>label_UMGS1092_121.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.221213956607384e-14</v>
+        <v>3.187933649329329e-09</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9998737294173418</v>
+        <v>0.9985643489811838</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0001262705826138593</v>
+        <v>0.001435647830860282</v>
       </c>
       <c r="E132" t="n">
-        <v>2.221213956607384e-14</v>
+        <v>2.228829182335162e-14</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9998737294173418</v>
+        <v>0.9985643489811838</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5360,23 +5171,23 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_114.fasta</t>
+          <t>label_UMGS1092_125.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.221112501903939e-14</v>
+        <v>1.714636792951672e-10</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9999674235653354</v>
+        <v>0.9998884853411746</v>
       </c>
       <c r="D133" t="n">
-        <v>3.257643462015746e-05</v>
+        <v>0.000111514487339553</v>
       </c>
       <c r="E133" t="n">
-        <v>2.221112501903939e-14</v>
+        <v>2.222735490215429e-14</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9999674235653354</v>
+        <v>0.9998884853411746</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5387,23 +5198,23 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_118.fasta</t>
+          <t>label_UMGS1092_127.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.220977298956956e-14</v>
+        <v>1.374239732238989e-08</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9999840173394586</v>
+        <v>0.9996088944723558</v>
       </c>
       <c r="D134" t="n">
-        <v>1.598266049705114e-05</v>
+        <v>0.0003910917852245982</v>
       </c>
       <c r="E134" t="n">
-        <v>2.220977298956956e-14</v>
+        <v>2.223048214330042e-14</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9999840173394586</v>
+        <v>0.9996088944723558</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5414,23 +5225,23 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_119.fasta</t>
+          <t>label_UMGS1092_128.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.5494799120712e-14</v>
+        <v>3.49724355834382e-08</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9662185509747512</v>
+        <v>0.9522980295120109</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0337814490251977</v>
+        <v>0.04770193551553124</v>
       </c>
       <c r="E135" t="n">
-        <v>2.549479912071198e-14</v>
+        <v>2.219891208195709e-14</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9662185509747512</v>
+        <v>0.9522980295120109</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5441,23 +5252,23 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_123.fasta</t>
+          <t>label_UMGS1092_137.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.221021575029008e-14</v>
+        <v>1.500235030175725e-07</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9999224016543795</v>
+        <v>0.9999503305504345</v>
       </c>
       <c r="D136" t="n">
-        <v>7.759834557605365e-05</v>
+        <v>4.951942604021101e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>2.221021575029008e-14</v>
+        <v>2.222699466039867e-14</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9999224016543795</v>
+        <v>0.9999503305504345</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5468,23 +5279,23 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_126.fasta</t>
+          <t>label_UMGS1092_142.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3.043243724306325e-14</v>
+        <v>1.146807140923137e-08</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5015485249442312</v>
+        <v>0.9989912188898884</v>
       </c>
       <c r="D137" t="n">
-        <v>0.498451475055708</v>
+        <v>0.001008769642018041</v>
       </c>
       <c r="E137" t="n">
-        <v>3.043243724306325e-14</v>
+        <v>2.223223788312356e-14</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5015485249442312</v>
+        <v>0.9989912188898884</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5495,23 +5306,23 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_133.fasta</t>
+          <t>label_UMGS1092_24.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.42112147462867e-14</v>
+        <v>0.0007164008425281367</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9864170430363598</v>
+        <v>0.9978516894497329</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01358295696355179</v>
+        <v>0.0007160404458487755</v>
       </c>
       <c r="E138" t="n">
-        <v>4.42112147462866e-14</v>
+        <v>0.000715869261890293</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9864170430363598</v>
+        <v>0.9978516894497329</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5522,23 +5333,23 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_145.fasta</t>
+          <t>label_UMGS1092_28.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6.64008227423076e-13</v>
+        <v>0.0005808117555821043</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9928943803954616</v>
+        <v>0.9887793009135868</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007105619603210452</v>
+        <v>0.01063988732984694</v>
       </c>
       <c r="E139" t="n">
-        <v>6.640082274230814e-13</v>
+        <v>9.841423112903734e-13</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9928943803954616</v>
+        <v>0.9887793009135868</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5549,23 +5360,23 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_15.fasta</t>
+          <t>label_UMGS1092_40.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0007125534599571418</v>
+        <v>0.002606885693716752</v>
       </c>
       <c r="C140" t="n">
-        <v>0.997857512701064</v>
+        <v>0.9972510412306365</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0007173803790216789</v>
+        <v>0.0001420730754453743</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0007125534599571466</v>
+        <v>2.013358294392808e-13</v>
       </c>
       <c r="F140" t="n">
-        <v>0.997857512701064</v>
+        <v>0.9972510412306365</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5576,23 +5387,23 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_152.fasta</t>
+          <t>label_UMGS1092_42.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.22091997326046e-14</v>
+        <v>0.0005218553698244285</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9999912363118149</v>
+        <v>0.9984287980194758</v>
       </c>
       <c r="D141" t="n">
-        <v>8.763688140718199e-06</v>
+        <v>0.0005275109736884284</v>
       </c>
       <c r="E141" t="n">
-        <v>2.22091997326046e-14</v>
+        <v>0.0005218356370113974</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9999912363118149</v>
+        <v>0.9984287980194758</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -5603,23 +5414,23 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_18.fasta</t>
+          <t>label_UMGS1092_48.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0005464410467486487</v>
+        <v>0.0005930329317917081</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9983546444273128</v>
+        <v>0.9982231612672872</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0005524734791897493</v>
+        <v>0.000592001269181706</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0005464410467487342</v>
+        <v>0.0005918045317392899</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9983546444273128</v>
+        <v>0.9982231612672872</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5630,23 +5441,23 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_19.fasta</t>
+          <t>label_UMGS1092_51.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.223907849968394e-14</v>
+        <v>9.070987759031684e-07</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9998056921571222</v>
+        <v>0.9989677823054951</v>
       </c>
       <c r="D143" t="n">
-        <v>0.000194307842833325</v>
+        <v>0.001031310595521892</v>
       </c>
       <c r="E143" t="n">
-        <v>2.223907849968394e-14</v>
+        <v>2.071808767429452e-13</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9998056921571222</v>
+        <v>0.9989677823054951</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5657,23 +5468,23 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_27.fasta</t>
+          <t>label_UMGS1092_53.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3.136447693622049e-14</v>
+        <v>0.0006759584341936533</v>
       </c>
       <c r="C144" t="n">
-        <v>0.999769451536544</v>
+        <v>0.998003684695932</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0002305484633934032</v>
+        <v>0.0006602563564653152</v>
       </c>
       <c r="E144" t="n">
-        <v>3.136447693622074e-14</v>
+        <v>0.0006601005134091346</v>
       </c>
       <c r="F144" t="n">
-        <v>0.999769451536544</v>
+        <v>0.998003684695932</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5684,23 +5495,23 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_3.fasta</t>
+          <t>label_UMGS1092_55.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>9.688144209666459e-10</v>
+        <v>3.448015745628211e-07</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9284945017479597</v>
+        <v>0.8738608580670685</v>
       </c>
       <c r="D145" t="n">
-        <v>0.07150549631441164</v>
+        <v>0.1261387971313347</v>
       </c>
       <c r="E145" t="n">
-        <v>9.68814420966669e-10</v>
+        <v>2.219976493876882e-14</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9284945017479597</v>
+        <v>0.8738608580670685</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5711,23 +5522,23 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_43.fasta</t>
+          <t>label_UMGS1092_56.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.221109813894378e-14</v>
+        <v>0.000601632937381772</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9999984826876268</v>
+        <v>0.9982031366313091</v>
       </c>
       <c r="D146" t="n">
-        <v>1.517312328797041e-06</v>
+        <v>0.0005986458729532731</v>
       </c>
       <c r="E146" t="n">
-        <v>2.221109813894379e-14</v>
+        <v>0.0005965845583559469</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9999984826876268</v>
+        <v>0.9982031366313091</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5738,23 +5549,23 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_47.fasta</t>
+          <t>label_UMGS1092_59.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0006886428731495356</v>
+        <v>0.0001740814522952865</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9979340288141687</v>
+        <v>0.9990104764972358</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0006886854395321296</v>
+        <v>0.0008154420502665547</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0006886428731495436</v>
+        <v>2.023117637470403e-13</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9979340288141687</v>
+        <v>0.9990104764972358</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5765,23 +5576,23 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_5.fasta</t>
+          <t>label_UMGS1092_6.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>7.357889341871353e-14</v>
+        <v>0.001134290697576297</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9929325083430861</v>
+        <v>0.996597421078636</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007067491656766625</v>
+        <v>0.00113414663262684</v>
       </c>
       <c r="E148" t="n">
-        <v>7.35788934187137e-14</v>
+        <v>0.001134141591161022</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9929325083430861</v>
+        <v>0.996597421078636</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5792,23 +5603,23 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_54.fasta</t>
+          <t>label_UMGS1092_64.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.001369181137424058</v>
+        <v>2.375080493282378e-07</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9958674114205364</v>
+        <v>0.9991077024224775</v>
       </c>
       <c r="D149" t="n">
-        <v>0.001394226304615571</v>
+        <v>0.0008920600694103768</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00136918113742407</v>
+        <v>6.273105565137094e-14</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9958674114205364</v>
+        <v>0.9991077024224775</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5819,23 +5630,23 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_65.fasta</t>
+          <t>label_UMGS1092_67.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.222568428918105e-14</v>
+        <v>1.540414121979829e-06</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9999808164233159</v>
+        <v>0.7111966019267291</v>
       </c>
       <c r="D150" t="n">
-        <v>1.918357663972486e-05</v>
+        <v>0.2888018576591248</v>
       </c>
       <c r="E150" t="n">
-        <v>2.222568428918105e-14</v>
+        <v>2.415843725410774e-14</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9999808164233159</v>
+        <v>0.7111966019267291</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5846,23 +5657,23 @@
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_66.fasta</t>
+          <t>label_UMGS1092_68.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.710832336533377e-13</v>
+        <v>0.0005657421224257171</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9920917980654541</v>
+        <v>0.9983030328637812</v>
       </c>
       <c r="D151" t="n">
-        <v>0.007908201934003795</v>
+        <v>0.0005662660197883096</v>
       </c>
       <c r="E151" t="n">
-        <v>2.710832336533394e-13</v>
+        <v>0.0005649589940048855</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9920917980654541</v>
+        <v>0.9983030328637812</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5873,23 +5684,23 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_7.fasta</t>
+          <t>label_UMGS1092_73.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3.21995136640501e-08</v>
+        <v>1.165640628213323e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9417262999401811</v>
+        <v>0.9999870481002311</v>
       </c>
       <c r="D152" t="n">
-        <v>0.05827363566079158</v>
+        <v>1.295493464562346e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>3.219951366405017e-08</v>
+        <v>2.222332270687053e-14</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9417262999401811</v>
+        <v>0.9999870481002311</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5900,23 +5711,23 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_85.fasta</t>
+          <t>label_UMGS1092_79.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.001027261176228185</v>
+        <v>0.0005300853018635594</v>
       </c>
       <c r="C153" t="n">
-        <v>0.996898129737379</v>
+        <v>0.9984175493977647</v>
       </c>
       <c r="D153" t="n">
-        <v>0.001047347910164622</v>
+        <v>0.0005273987561446668</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001027261176228193</v>
+        <v>0.0005249665442272296</v>
       </c>
       <c r="F153" t="n">
-        <v>0.996898129737379</v>
+        <v>0.9984175493977647</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5927,23 +5738,23 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_98.fasta</t>
+          <t>label_UMGS1092_9.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7.350539784123224e-14</v>
+        <v>0.0008218452605220951</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9990294628366926</v>
+        <v>0.9975346731153871</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0009705371631603846</v>
+        <v>0.0008219064835859633</v>
       </c>
       <c r="E154" t="n">
-        <v>7.350539784123348e-14</v>
+        <v>0.0008215751405049224</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9990294628366926</v>
+        <v>0.9975346731153871</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5954,23 +5765,23 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_99.fasta</t>
+          <t>label_UMGS1092_92.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2.221597775847193e-14</v>
+        <v>0.0005671879077370506</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9999945883882271</v>
+        <v>0.9982782537821879</v>
       </c>
       <c r="D155" t="n">
-        <v>5.411611728512733e-06</v>
+        <v>0.000587374241325459</v>
       </c>
       <c r="E155" t="n">
-        <v>2.221597775847193e-14</v>
+        <v>0.0005671840687494468</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9999945883882271</v>
+        <v>0.9982782537821879</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5981,835 +5792,25 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1092_105.fasta</t>
+          <t>label_UMGS1092_97.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1.221801322895292e-07</v>
+        <v>0.000663616960293983</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9993919254954551</v>
+        <v>0.9979928321748791</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0006079523243561851</v>
+        <v>0.0006805696660834141</v>
       </c>
       <c r="E156" t="n">
-        <v>5.655865396922301e-14</v>
+        <v>0.0006629811987434198</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9993919254954551</v>
+        <v>0.9979928321748791</v>
       </c>
       <c r="G156" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_106.fasta</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2.556900747547098e-08</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.9549753312166465</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.04502464321432341</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2.258442927141145e-14</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.9549753312166465</v>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_108.fasta</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.002795930854547363</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.9923606855406351</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.004843383594337809</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.047980750935064e-11</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.9923606855406351</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_109.fasta</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>8.63275056593455e-08</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.9930188527274869</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.006981060944985149</v>
-      </c>
-      <c r="E159" t="n">
-        <v>2.219814277905659e-14</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.9930188527274869</v>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_112.fasta</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.0003488755859590114</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.9962980648788342</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.003353059534003162</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.203689581886353e-12</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.9962980648788342</v>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_116.fasta</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>4.351070409102317e-08</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.9984234187509375</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.001576537738336192</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2.222369720467047e-14</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.9984234187509375</v>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_121.fasta</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>3.187933649329329e-09</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.9985643489811838</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.001435647830860282</v>
-      </c>
-      <c r="E162" t="n">
-        <v>2.228829182335162e-14</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.9985643489811838</v>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_125.fasta</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1.714636792951672e-10</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.9998884853411746</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.000111514487339553</v>
-      </c>
-      <c r="E163" t="n">
-        <v>2.222735490215429e-14</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.9998884853411746</v>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_127.fasta</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>1.374239732238989e-08</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.9996088944723558</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.0003910917852245982</v>
-      </c>
-      <c r="E164" t="n">
-        <v>2.223048214330042e-14</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.9996088944723558</v>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_128.fasta</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>3.49724355834382e-08</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.9522980295120109</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.04770193551553124</v>
-      </c>
-      <c r="E165" t="n">
-        <v>2.219891208195709e-14</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.9522980295120109</v>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_137.fasta</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>1.500235030175725e-07</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.9999503305504345</v>
-      </c>
-      <c r="D166" t="n">
-        <v>4.951942604021101e-05</v>
-      </c>
-      <c r="E166" t="n">
-        <v>2.222699466039867e-14</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.9999503305504345</v>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_142.fasta</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>1.146807140923137e-08</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.9989912188898884</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.001008769642018041</v>
-      </c>
-      <c r="E167" t="n">
-        <v>2.223223788312356e-14</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.9989912188898884</v>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_24.fasta</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.0007164008425281367</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.9978516894497329</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.0007160404458487755</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.000715869261890293</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.9978516894497329</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_28.fasta</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0.0005808117555821043</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.9887793009135868</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.01063988732984694</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9.841423112903734e-13</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.9887793009135868</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_40.fasta</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0.002606885693716752</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.9972510412306365</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.0001420730754453743</v>
-      </c>
-      <c r="E170" t="n">
-        <v>2.013358294392808e-13</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.9972510412306365</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_42.fasta</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0.0005218553698244285</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.9984287980194758</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.0005275109736884284</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.0005218356370113974</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.9984287980194758</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_48.fasta</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>0.0005930329317917081</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.9982231612672872</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.000592001269181706</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.0005918045317392899</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.9982231612672872</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_51.fasta</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>9.070987759031684e-07</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.9989677823054951</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.001031310595521892</v>
-      </c>
-      <c r="E173" t="n">
-        <v>2.071808767429452e-13</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.9989677823054951</v>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_53.fasta</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>0.0006759584341936533</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.998003684695932</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.0006602563564653152</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.0006601005134091346</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.998003684695932</v>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_55.fasta</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>3.448015745628211e-07</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.8738608580670685</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.1261387971313347</v>
-      </c>
-      <c r="E175" t="n">
-        <v>2.219976493876882e-14</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.8738608580670685</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_56.fasta</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>0.000601632937381772</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.9982031366313091</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.0005986458729532731</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.0005965845583559469</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.9982031366313091</v>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_59.fasta</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0.0001740814522952865</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.9990104764972358</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.0008154420502665547</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2.023117637470403e-13</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.9990104764972358</v>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_6.fasta</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0.001134290697576297</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.996597421078636</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.00113414663262684</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.001134141591161022</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.996597421078636</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_64.fasta</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2.375080493282378e-07</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.9991077024224775</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.0008920600694103768</v>
-      </c>
-      <c r="E179" t="n">
-        <v>6.273105565137094e-14</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.9991077024224775</v>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_67.fasta</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1.540414121979829e-06</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.7111966019267291</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.2888018576591248</v>
-      </c>
-      <c r="E180" t="n">
-        <v>2.415843725410774e-14</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.7111966019267291</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_68.fasta</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0.0005657421224257171</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.9983030328637812</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.0005662660197883096</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.0005649589940048855</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.9983030328637812</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_73.fasta</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>1.165640628213323e-05</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.9999870481002311</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.295493464562346e-06</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2.222332270687053e-14</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.9999870481002311</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_79.fasta</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0.0005300853018635594</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.9984175493977647</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0005273987561446668</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.0005249665442272296</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.9984175493977647</v>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_9.fasta</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0.0008218452605220951</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.9975346731153871</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.0008219064835859633</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.0008215751405049224</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.9975346731153871</v>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_92.fasta</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0.0005671879077370506</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.9982782537821879</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.000587374241325459</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.0005671840687494468</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.9982782537821879</v>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1092_97.fasta</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0.000663616960293983</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.9979928321748791</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.0006805696660834141</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.0006629811987434198</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.9979928321748791</v>
-      </c>
-      <c r="G186" t="inlineStr">
         <is>
           <t>s__Succinivibrio sp900548485</t>
         </is>
@@ -6826,7 +5827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7063,23 +6064,23 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_10.fasta</t>
+          <t>label_UMGS1560_0.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.39849319138314e-11</v>
+        <v>4.754974340612049e-08</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006306007172649694</v>
+        <v>3.181150767845123e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9993693992687278</v>
+        <v>0.9999967712994664</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220097036946848e-14</v>
+        <v>2.220444257157179e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9993693992687278</v>
+        <v>0.9999967712994664</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -7090,23 +6091,23 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_13.fasta</t>
+          <t>label_UMGS1560_15.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.206845405291276e-09</v>
+        <v>2.117648091033107e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01318228427736e-05</v>
+        <v>0.0002554755014039508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999898629702895</v>
+        <v>0.9997233480176635</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220440432176845e-14</v>
+        <v>2.220293630802031e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999898629702895</v>
+        <v>0.9997233480176635</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -7117,23 +6118,23 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_19.fasta</t>
+          <t>label_UMGS1560_18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.435450567871551e-09</v>
+        <v>1.805820153564976e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001463125401090648</v>
+        <v>2.616176024276796e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9985368711634366</v>
+        <v>0.9999793256224178</v>
       </c>
       <c r="E11" t="n">
-        <v>2.219807221573515e-14</v>
+        <v>2.220434610727097e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9985368711634366</v>
+        <v>0.9999793256224178</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -7144,23 +6145,23 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_2.fasta</t>
+          <t>label_UMGS1560_22.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.90158479329808e-11</v>
+        <v>1.044941499036835e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>3.542404493960626e-05</v>
+        <v>0.0002844974617809499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999645759060224</v>
+        <v>0.9997050531232065</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220426388103496e-14</v>
+        <v>2.220285677930322e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999645759060224</v>
+        <v>0.9997050531232065</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -7171,23 +6172,23 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_24.fasta</t>
+          <t>label_UMGS1560_23.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.125694888104542e-08</v>
+        <v>3.863735772211901e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002451324072513091</v>
+        <v>0.0003228930285054473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997548363357777</v>
+        <v>0.9996384696137501</v>
       </c>
       <c r="E13" t="n">
-        <v>2.220311550691651e-14</v>
+        <v>2.220249266276171e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997548363357777</v>
+        <v>0.9996384696137501</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -7198,23 +6199,23 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_32.fasta</t>
+          <t>label_UMGS1560_3.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.933267191147413e-09</v>
+        <v>1.274961010535331e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.075064608279909</v>
+        <v>4.202956196990929e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9249353887868016</v>
+        <v>0.9999983047433476</v>
       </c>
       <c r="E14" t="n">
-        <v>2.219898960748703e-14</v>
+        <v>2.220445108296966e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9249353887868016</v>
+        <v>0.9999983047433476</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -7225,23 +6226,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_34.fasta</t>
+          <t>label_UMGS1560_39.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.473061118526383e-09</v>
+        <v>0.0007213018464338161</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04218721722576716</v>
+        <v>0.01189832718088356</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9578127743011494</v>
+        <v>0.9873803709726422</v>
       </c>
       <c r="E15" t="n">
-        <v>2.219873331076633e-14</v>
+        <v>4.043335153491997e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9578127743011494</v>
+        <v>0.9873803709726422</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -7252,23 +6253,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_35.fasta</t>
+          <t>label_UMGS1560_43.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.520608160519859e-09</v>
+        <v>0.0001790875854205118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05637960353550317</v>
+        <v>0.005537199696110439</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9436203869438665</v>
+        <v>0.9942837127184342</v>
       </c>
       <c r="E16" t="n">
-        <v>2.219908828961251e-14</v>
+        <v>3.483795771096519e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9436203869438665</v>
+        <v>0.9942837127184342</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -7279,77 +6280,77 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_37.fasta</t>
+          <t>label_UMGS1560_46.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.852084614113646e-08</v>
+        <v>4.316149460793428e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7422758564394581</v>
+        <v>0.000265014698201158</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257724045039541</v>
+        <v>0.9996918238071687</v>
       </c>
       <c r="E17" t="n">
-        <v>1.546629606668858e-13</v>
+        <v>2.220528307872922e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7422758564394581</v>
+        <v>0.9996918238071687</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900548485</t>
+          <t>s__Succinivibrio sp900552905</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_38.fasta</t>
+          <t>label_UMGS1560_49.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.382104822078442e-08</v>
+        <v>0.06830381469669582</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002306323812499992</v>
+        <v>0.6688430309286708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997693037976797</v>
+        <v>0.2628531543552062</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220354043920719e-14</v>
+        <v>1.942718870234482e-11</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997693037976797</v>
+        <v>0.6688430309286708</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900552905</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_41.fasta</t>
+          <t>label_UMGS1560_52.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.034185037138257e-07</v>
+        <v>1.418693638530144e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001053526771384216</v>
+        <v>0.1751329878723093</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9989463698100898</v>
+        <v>0.8248528251912832</v>
       </c>
       <c r="E19" t="n">
-        <v>2.219876283864339e-14</v>
+        <v>2.219566720525729e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9989463698100898</v>
+        <v>0.8248528251912832</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -7360,23 +6361,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_53.fasta</t>
+          <t>label_UMGS1560_11.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.170918654842909e-14</v>
+        <v>1.817826372365323e-09</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1875431437171941</v>
+        <v>0.01038489841675401</v>
       </c>
       <c r="D20" t="n">
-        <v>0.812456856282712</v>
+        <v>0.9896150997653975</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220043147296726e-14</v>
+        <v>2.219824699851442e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.812456856282712</v>
+        <v>0.9896150997653975</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -7387,23 +6388,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_7.fasta</t>
+          <t>label_UMGS1560_12.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.676883498967425e-08</v>
+        <v>1.289330170420437e-07</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02943197552200967</v>
+        <v>7.655677627044368e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9705680077091331</v>
+        <v>0.9999922153893336</v>
       </c>
       <c r="E21" t="n">
-        <v>2.219850662682052e-14</v>
+        <v>2.220441778956653e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9705680077091331</v>
+        <v>0.9999922153893336</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -7414,23 +6415,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_8.fasta</t>
+          <t>label_UMGS1560_20.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.057722150635289e-10</v>
+        <v>2.111681123930596e-07</v>
       </c>
       <c r="C22" t="n">
-        <v>7.389484829303149e-05</v>
+        <v>0.0004790053788296723</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999261049459126</v>
+        <v>0.9995207834530357</v>
       </c>
       <c r="E22" t="n">
-        <v>2.220405075733777e-14</v>
+        <v>2.220208028095387e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999261049459126</v>
+        <v>0.9995207834530357</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -7441,23 +6442,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_9.fasta</t>
+          <t>label_UMGS1560_21.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.303757040556782e-10</v>
+        <v>1.092615750363478e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001475697541680287</v>
+        <v>1.071083083375068e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999852430115434</v>
+        <v>0.9999881965533937</v>
       </c>
       <c r="E23" t="n">
-        <v>2.220364202970154e-14</v>
+        <v>2.220439605560487e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999852430115434</v>
+        <v>0.9999881965533937</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -7468,23 +6469,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_0.fasta</t>
+          <t>label_UMGS1560_28.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.754974340612049e-08</v>
+        <v>7.083611658469277e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>3.181150767845123e-06</v>
+        <v>0.0005505619082612752</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999967712994664</v>
+        <v>0.9994487297305507</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220444257157179e-14</v>
+        <v>2.220161318346716e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999967712994664</v>
+        <v>0.9994487297305507</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -7495,23 +6496,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_15.fasta</t>
+          <t>label_UMGS1560_29.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.117648091033107e-05</v>
+        <v>6.332834547851621e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002554755014039508</v>
+        <v>0.004640724933633874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997233480176635</v>
+        <v>0.9953529422317959</v>
       </c>
       <c r="E25" t="n">
-        <v>2.220293630802031e-14</v>
+        <v>2.219815065498432e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997233480176635</v>
+        <v>0.9953529422317959</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -7522,23 +6523,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_18.fasta</t>
+          <t>label_UMGS1560_30.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.805820153564976e-05</v>
+        <v>2.245197307899219e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.616176024276796e-06</v>
+        <v>0.0004531674967801619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999793256224178</v>
+        <v>0.9995445873058897</v>
       </c>
       <c r="E26" t="n">
-        <v>2.220434610727097e-14</v>
+        <v>2.220376027049168e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999793256224178</v>
+        <v>0.9995445873058897</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -7549,23 +6550,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_22.fasta</t>
+          <t>label_UMGS1560_33.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.044941499036835e-05</v>
+        <v>7.290932155597159e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002844974617809499</v>
+        <v>0.009585197365516659</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9997050531232065</v>
+        <v>0.9904140735412456</v>
       </c>
       <c r="E27" t="n">
-        <v>2.220285677930322e-14</v>
+        <v>2.219819578818545e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9997050531232065</v>
+        <v>0.9904140735412456</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -7576,23 +6577,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_23.fasta</t>
+          <t>label_UMGS1560_44.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.863735772211901e-05</v>
+        <v>3.198908146140214e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0003228930285054473</v>
+        <v>0.3725422130358785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9996384696137501</v>
+        <v>0.6274257978803578</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220249266276171e-14</v>
+        <v>2.302303816037097e-12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9996384696137501</v>
+        <v>0.6274257978803578</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -7603,23 +6604,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_3.fasta</t>
+          <t>label_UMGS1560_45.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.274961010535331e-06</v>
+        <v>1.064887659568389e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>4.202956196990929e-07</v>
+        <v>0.000412679196882129</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999983047433476</v>
+        <v>0.9995766719265001</v>
       </c>
       <c r="E29" t="n">
-        <v>2.220445108296966e-14</v>
+        <v>2.220266167675432e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9999983047433476</v>
+        <v>0.9995766719265001</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -7630,23 +6631,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_39.fasta</t>
+          <t>label_UMGS1560_50.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0007213018464338161</v>
+        <v>2.388988572864302e-10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01189832718088356</v>
+        <v>0.1015530542533551</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9873803709726422</v>
+        <v>0.898446945507724</v>
       </c>
       <c r="E30" t="n">
-        <v>4.043335153491997e-14</v>
+        <v>2.219985523153087e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9873803709726422</v>
+        <v>0.898446945507724</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -7657,23 +6658,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_43.fasta</t>
+          <t>label_UMGS1560_6.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0001790875854205118</v>
+        <v>7.534465662173206e-08</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005537199696110439</v>
+        <v>1.370137426022405e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9942837127184342</v>
+        <v>0.999986223281061</v>
       </c>
       <c r="E31" t="n">
-        <v>3.483795771096519e-14</v>
+        <v>2.220438538171888e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9942837127184342</v>
+        <v>0.999986223281061</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -7684,23 +6685,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_46.fasta</t>
+          <t>label_UMGS1560_1.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.316149460793428e-05</v>
+        <v>2.22040815799594e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000265014698201158</v>
+        <v>8.067733651185109e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9996918238071687</v>
+        <v>0.9999193226634439</v>
       </c>
       <c r="E32" t="n">
-        <v>2.220528307872922e-14</v>
+        <v>2.22040815799594e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996918238071687</v>
+        <v>0.9999193226634439</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -7711,77 +6712,77 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_49.fasta</t>
+          <t>label_UMGS1560_14.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06830381469669582</v>
+        <v>5.181374128533516e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6688430309286708</v>
+        <v>0.3838149458872498</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2628531543552062</v>
+        <v>0.6161850541117138</v>
       </c>
       <c r="E33" t="n">
-        <v>1.942718870234482e-11</v>
+        <v>5.181374128533516e-13</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6688430309286708</v>
+        <v>0.6161850541117138</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900548485</t>
+          <t>s__Succinivibrio sp900552905</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_52.fasta</t>
+          <t>label_UMGS1560_17.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.418693638530144e-05</v>
+        <v>2.747170203850553e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1751329878723093</v>
+        <v>0.8736310980766351</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8248528251912832</v>
+        <v>0.1263689019228155</v>
       </c>
       <c r="E34" t="n">
-        <v>2.219566720525729e-14</v>
+        <v>2.747170203850554e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8248528251912832</v>
+        <v>0.8736310980766351</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>s__Succinivibrio sp900552905</t>
+          <t>s__Succinivibrio sp900548485</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_11.fasta</t>
+          <t>label_UMGS1560_25.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.817826372365323e-09</v>
+        <v>2.220444000174399e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01038489841675401</v>
+        <v>8.694459313159017e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9896150997653975</v>
+        <v>0.9999913055406424</v>
       </c>
       <c r="E35" t="n">
-        <v>2.219824699851442e-14</v>
+        <v>2.220444000174399e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9896150997653975</v>
+        <v>0.9999913055406424</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -7792,23 +6793,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_12.fasta</t>
+          <t>label_UMGS1560_26.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.289330170420437e-07</v>
+        <v>2.220458391938443e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>7.655677627044368e-06</v>
+        <v>2.267713086132878e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999922153893336</v>
+        <v>0.9999977322868694</v>
       </c>
       <c r="E36" t="n">
-        <v>2.220441778956653e-14</v>
+        <v>2.220458391938443e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9999922153893336</v>
+        <v>0.9999977322868694</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -7819,23 +6820,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_20.fasta</t>
+          <t>label_UMGS1560_36.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.111681123930596e-07</v>
+        <v>2.221982758593048e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0004790053788296723</v>
+        <v>0.0037160142460517</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9995207834530357</v>
+        <v>0.9962839857539039</v>
       </c>
       <c r="E37" t="n">
-        <v>2.220208028095387e-14</v>
+        <v>2.221982758593049e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9995207834530357</v>
+        <v>0.9962839857539039</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -7846,23 +6847,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_21.fasta</t>
+          <t>label_UMGS1560_42.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.092615750363478e-06</v>
+        <v>2.220707952135568e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>1.071083083375068e-05</v>
+        <v>3.51417166755832e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999881965533937</v>
+        <v>0.999996485828288</v>
       </c>
       <c r="E38" t="n">
-        <v>2.220439605560487e-14</v>
+        <v>2.220707952135568e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9999881965533937</v>
+        <v>0.999996485828288</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -7873,23 +6874,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_28.fasta</t>
+          <t>label_UMGS1560_48.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.083611658469277e-07</v>
+        <v>2.220458985422574e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0005505619082612752</v>
+        <v>1.328133056012517e-08</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9994487297305507</v>
+        <v>0.999999986718625</v>
       </c>
       <c r="E39" t="n">
-        <v>2.220161318346716e-14</v>
+        <v>2.220458985422573e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9994487297305507</v>
+        <v>0.999999986718625</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -7900,23 +6901,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_29.fasta</t>
+          <t>label_UMGS1560_51.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.332834547851621e-06</v>
+        <v>1.478009392659717e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004640724933633874</v>
+        <v>0.3739876195580421</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9953529422317959</v>
+        <v>0.6260123804416625</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219815065498432e-14</v>
+        <v>1.478009392659717e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9953529422317959</v>
+        <v>0.6260123804416625</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -7927,23 +6928,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_30.fasta</t>
+          <t>label_UMGS1560_16.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.245197307899219e-06</v>
+        <v>1.761762935522794e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0004531674967801619</v>
+        <v>3.883731477809609e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9995445873058897</v>
+        <v>0.9999609865089062</v>
       </c>
       <c r="E41" t="n">
-        <v>2.220376027049168e-14</v>
+        <v>2.220433091649194e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9995445873058897</v>
+        <v>0.9999609865089062</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -7954,23 +6955,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_33.fasta</t>
+          <t>label_UMGS1560_27.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.290932155597159e-07</v>
+        <v>8.261866268918265e-09</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009585197365516659</v>
+        <v>0.02233399461967641</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9904140735412456</v>
+        <v>0.9776659971184352</v>
       </c>
       <c r="E42" t="n">
-        <v>2.219819578818545e-14</v>
+        <v>2.219835369040074e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9904140735412456</v>
+        <v>0.9776659971184352</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -7981,23 +6982,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_44.fasta</t>
+          <t>label_UMGS1560_31.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.198908146140214e-05</v>
+        <v>4.279883579049555e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3725422130358785</v>
+        <v>5.75721504911219e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6274257978803578</v>
+        <v>0.9999951443948938</v>
       </c>
       <c r="E43" t="n">
-        <v>2.302303816037097e-12</v>
+        <v>2.220449329786434e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6274257978803578</v>
+        <v>0.9999951443948938</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -8008,23 +7009,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_45.fasta</t>
+          <t>label_UMGS1560_4.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.064887659568389e-05</v>
+        <v>1.999442919978627e-09</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000412679196882129</v>
+        <v>8.593401251752491e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9995766719265001</v>
+        <v>0.9999914045992833</v>
       </c>
       <c r="E44" t="n">
-        <v>2.220266167675432e-14</v>
+        <v>2.220441367920305e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9995766719265001</v>
+        <v>0.9999914045992833</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -8035,23 +7036,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_50.fasta</t>
+          <t>label_UMGS1560_40.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.388988572864302e-10</v>
+        <v>1.239707031353306e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1015530542533551</v>
+        <v>1.318535123984051e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>0.898446945507724</v>
+        <v>0.9999985574941507</v>
       </c>
       <c r="E45" t="n">
-        <v>2.219985523153087e-14</v>
+        <v>2.220493918905793e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.898446945507724</v>
+        <v>0.9999985574941507</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -8062,23 +7063,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_6.fasta</t>
+          <t>label_UMGS1560_47.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.534465662173206e-08</v>
+        <v>3.594766570551156e-08</v>
       </c>
       <c r="C46" t="n">
-        <v>1.370137426022405e-05</v>
+        <v>0.00554904247437817</v>
       </c>
       <c r="D46" t="n">
-        <v>0.999986223281061</v>
+        <v>0.9944509215778558</v>
       </c>
       <c r="E46" t="n">
-        <v>2.220438538171888e-14</v>
+        <v>1.003408141352844e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.999986223281061</v>
+        <v>0.9944509215778558</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -8089,430 +7090,25 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1560_1.fasta</t>
+          <t>label_UMGS1560_5.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.22040815799594e-14</v>
+        <v>8.076762563308507e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>8.067733651185109e-05</v>
+        <v>1.573016612571225e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999193226634439</v>
+        <v>0.9999983462157395</v>
       </c>
       <c r="E47" t="n">
-        <v>2.22040815799594e-14</v>
+        <v>2.220445166441835e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999193226634439</v>
+        <v>0.9999983462157395</v>
       </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_14.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5.181374128533516e-13</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3838149458872498</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.6161850541117138</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5.181374128533516e-13</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.6161850541117138</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_17.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2.747170203850553e-13</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.8736310980766351</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.1263689019228155</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.747170203850554e-13</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.8736310980766351</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900548485</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_25.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2.220444000174399e-14</v>
-      </c>
-      <c r="C50" t="n">
-        <v>8.694459313159017e-06</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9999913055406424</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.220444000174399e-14</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.9999913055406424</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_26.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2.220458391938443e-14</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.267713086132878e-06</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9999977322868694</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.220458391938443e-14</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.9999977322868694</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_36.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2.221982758593048e-14</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0037160142460517</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9962839857539039</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2.221982758593049e-14</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.9962839857539039</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_42.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2.220707952135568e-14</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.51417166755832e-06</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.999996485828288</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.220707952135568e-14</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.999996485828288</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_48.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2.220458985422574e-14</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.328133056012517e-08</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.999999986718625</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2.220458985422573e-14</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.999999986718625</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_51.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1.478009392659717e-13</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.3739876195580421</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.6260123804416625</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1.478009392659717e-13</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.6260123804416625</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_16.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1.761762935522794e-07</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.883731477809609e-05</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9999609865089062</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.220433091649194e-14</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.9999609865089062</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_27.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>8.261866268918265e-09</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.02233399461967641</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9776659971184352</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.219835369040074e-14</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.9776659971184352</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_31.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4.279883579049555e-06</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5.75721504911219e-07</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9999951443948938</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2.220449329786434e-14</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.9999951443948938</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_4.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1.999442919978627e-09</v>
-      </c>
-      <c r="C59" t="n">
-        <v>8.593401251752491e-06</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9999914045992833</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.220441367920305e-14</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.9999914045992833</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_40.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1.239707031353306e-07</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1.318535123984051e-06</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9999985574941507</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2.220493918905793e-14</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.9999985574941507</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_47.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3.594766570551156e-08</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.00554904247437817</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9944509215778558</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1.003408141352844e-13</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.9944509215778558</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900552905</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1560_5.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>8.076762563308507e-08</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.573016612571225e-06</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9999983462157395</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2.220445166441835e-14</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.9999983462157395</v>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>s__Succinivibrio sp900552905</t>
         </is>
@@ -8529,7 +7125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9009,23 +7605,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_1.fasta</t>
+          <t>label_UMGS1793_17.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.232271877268711e-13</v>
+        <v>2.864421341641113e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>4.480378919018907e-05</v>
+        <v>1.203650416003979e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004892035409328057</v>
+        <v>4.33153294661147e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9950631608006585</v>
+        <v>0.9999526165987763</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9950631608006585</v>
+        <v>0.9999526165987763</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -9036,23 +7632,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_12.fasta</t>
+          <t>label_UMGS1793_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.293196408666893e-10</v>
+        <v>5.164801033822247e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.332712680708847e-05</v>
+        <v>1.063814606338808e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>9.733361596722903e-05</v>
+        <v>3.134305843481386e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998893385279061</v>
+        <v>0.9999906370785163</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998893385279061</v>
+        <v>0.9999906370785163</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -9063,23 +7659,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_13.fasta</t>
+          <t>label_UMGS1793_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.725482653664381e-11</v>
+        <v>1.277511370635991e-07</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008868668747138675</v>
+        <v>3.611171196594838e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002717832499697693</v>
+        <v>0.002570176285985766</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9988413498280615</v>
+        <v>0.9973935842509113</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9988413498280615</v>
+        <v>0.9973935842509113</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -9090,23 +7686,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_18.fasta</t>
+          <t>label_UMGS1793_22.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.100333861416378e-11</v>
+        <v>3.952104125075894e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004337394881045686</v>
+        <v>8.535522227673971e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0004541084828683742</v>
+        <v>4.282839485110056e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9991121519980237</v>
+        <v>0.9999446839787961</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9991121519980237</v>
+        <v>0.9999446839787961</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -9117,23 +7713,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_23.fasta</t>
+          <t>label_UMGS1793_25.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.707974508148972e-06</v>
+        <v>5.49355143848618e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>4.435468714531992e-07</v>
+        <v>0.0005458043347636551</v>
       </c>
       <c r="D22" t="n">
-        <v>6.448005108614715e-05</v>
+        <v>0.0002753710163311035</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999323684275343</v>
+        <v>0.9991733310974668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999323684275343</v>
+        <v>0.9991733310974668</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -9144,23 +7740,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_47.fasta</t>
+          <t>label_UMGS1793_30.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.83712869689146e-09</v>
+        <v>0.0002376252275771404</v>
       </c>
       <c r="C23" t="n">
-        <v>1.491315561974193e-05</v>
+        <v>3.121619262344218e-08</v>
       </c>
       <c r="D23" t="n">
-        <v>8.027259682504145e-05</v>
+        <v>6.996689820512408e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999048054104265</v>
+        <v>0.9997553468664098</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999048054104265</v>
+        <v>0.9997553468664098</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -9171,23 +7767,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_48.fasta</t>
+          <t>label_UMGS1793_32.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.765841096058996e-11</v>
+        <v>2.634229205967845e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>3.163956482321827e-05</v>
+        <v>3.807425476855551e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>9.363746319790909e-05</v>
+        <v>4.003443618862004e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998747229243204</v>
+        <v>0.9998955490169832</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998747229243204</v>
+        <v>0.9998955490169832</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -9198,23 +7794,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_54.fasta</t>
+          <t>label_UMGS1793_37.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.727262777911061e-11</v>
+        <v>7.432136644764646e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>4.708487881596532e-06</v>
+        <v>2.077768570515328e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003503489878403282</v>
+        <v>6.776947627282505e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996449424670055</v>
+        <v>0.9998371314715745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996449424670055</v>
+        <v>0.9998371314715745</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -9225,23 +7821,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_58.fasta</t>
+          <t>label_UMGS1793_4.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.846664852360423e-09</v>
+        <v>5.111295631001436e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>7.32284762539455e-05</v>
+        <v>1.962840788296931e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0006867586852363621</v>
+        <v>6.584554211257113e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9992400079918449</v>
+        <v>0.999931680487536</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9992400079918449</v>
+        <v>0.999931680487536</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -9252,23 +7848,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_59.fasta</t>
+          <t>label_UMGS1793_40.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.06788046389062e-09</v>
+        <v>2.116478292458939e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003295395038292072</v>
+        <v>4.560253796266653e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001771510819114463</v>
+        <v>9.339496997464018e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.996527452811916</v>
+        <v>0.9999238931821152</v>
       </c>
       <c r="F27" t="n">
-        <v>0.996527452811916</v>
+        <v>0.9999238931821152</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -9279,23 +7875,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_61.fasta</t>
+          <t>label_UMGS1793_46.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.624029018869204e-11</v>
+        <v>7.705789729100342e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>4.724109701559277e-05</v>
+        <v>1.366619633345586e-07</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004020448880328016</v>
+        <v>0.01258232380133282</v>
       </c>
       <c r="E28" t="n">
-        <v>0.995932309926416</v>
+        <v>0.9874098337469749</v>
       </c>
       <c r="F28" t="n">
-        <v>0.995932309926416</v>
+        <v>0.9874098337469749</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -9306,23 +7902,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_17.fasta</t>
+          <t>label_UMGS1793_49.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.864421341641113e-06</v>
+        <v>3.905015828973478e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.203650416003979e-06</v>
+        <v>0.0001677531469136367</v>
       </c>
       <c r="D29" t="n">
-        <v>4.33153294661147e-05</v>
+        <v>0.0001295814614259814</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999526165987763</v>
+        <v>0.9996636152333707</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9999526165987763</v>
+        <v>0.9996636152333707</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -9333,23 +7929,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_19.fasta</t>
+          <t>label_UMGS1793_6.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.164801033822247e-06</v>
+        <v>4.436485753105e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>1.063814606338808e-06</v>
+        <v>0.0001366538301700045</v>
       </c>
       <c r="D30" t="n">
-        <v>3.134305843481386e-06</v>
+        <v>0.001701551057798654</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999906370785163</v>
+        <v>0.998161351463456</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999906370785163</v>
+        <v>0.998161351463456</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -9360,23 +7956,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_2.fasta</t>
+          <t>label_UMGS1793_60.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.277511370635991e-07</v>
+        <v>2.217236551091711e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>3.611171196594838e-05</v>
+        <v>1.941612755830774e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002570176285985766</v>
+        <v>0.001355126743735567</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9973935842509113</v>
+        <v>0.9986032847631952</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9973935842509113</v>
+        <v>0.9986032847631952</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -9387,23 +7983,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_22.fasta</t>
+          <t>label_UMGS1793_69.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.952104125075894e-06</v>
+        <v>2.773829924577429e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>8.535522227673971e-06</v>
+        <v>0.0002187799031636274</v>
       </c>
       <c r="D32" t="n">
-        <v>4.282839485110056e-05</v>
+        <v>0.01442253100294395</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9999446839787961</v>
+        <v>0.9853309507946467</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999446839787961</v>
+        <v>0.9853309507946467</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -9414,23 +8010,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_25.fasta</t>
+          <t>label_UMGS1793_9.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.49355143848618e-06</v>
+        <v>9.293287328073595e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0005458043347636551</v>
+        <v>9.618212335775893e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002753710163311035</v>
+        <v>4.82401785791173e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9991733310974668</v>
+        <v>0.9999412122803524</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9991733310974668</v>
+        <v>0.9999412122803524</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -9441,23 +8037,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_30.fasta</t>
+          <t>label_UMGS1793_10.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0002376252275771404</v>
+        <v>1.226787255987812e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>3.121619262344218e-08</v>
+        <v>1.90924311220595e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>6.996689820512408e-06</v>
+        <v>1.535237665565782e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9997553468664098</v>
+        <v>0.9999843340203075</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9997553468664098</v>
+        <v>0.9999843340203075</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -9468,23 +8064,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_32.fasta</t>
+          <t>label_UMGS1793_24.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.634229205967845e-05</v>
+        <v>1.246401182836781e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>3.807425476855551e-05</v>
+        <v>7.691817281784043e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>4.003443618862004e-05</v>
+        <v>0.0001375464656636249</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9998955490169832</v>
+        <v>0.9998535153158716</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9998955490169832</v>
+        <v>0.9998535153158716</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -9495,23 +8091,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_37.fasta</t>
+          <t>label_UMGS1793_28.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.432136644764646e-05</v>
+        <v>1.209443327131602e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>2.077768570515328e-05</v>
+        <v>7.595822777427759e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>6.776947627282505e-05</v>
+        <v>2.107239991549827e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9998371314715745</v>
+        <v>0.9999701223339799</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9998371314715745</v>
+        <v>0.9999701223339799</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -9522,23 +8118,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_4.fasta</t>
+          <t>label_UMGS1793_34.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.111295631001436e-07</v>
+        <v>1.135111946905869e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>1.962840788296931e-06</v>
+        <v>0.0002055421864536881</v>
       </c>
       <c r="D37" t="n">
-        <v>6.584554211257113e-05</v>
+        <v>8.203690958903251e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.999931680487536</v>
+        <v>0.9997112857920104</v>
       </c>
       <c r="F37" t="n">
-        <v>0.999931680487536</v>
+        <v>0.9997112857920104</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -9549,23 +8145,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_40.fasta</t>
+          <t>label_UMGS1793_35.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.116478292458939e-05</v>
+        <v>8.112184537017236e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>4.560253796266653e-05</v>
+        <v>7.36305490337763e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>9.339496997464018e-06</v>
+        <v>1.313040996242136e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9999238931821152</v>
+        <v>0.99991242782255</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9999238931821152</v>
+        <v>0.99991242782255</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -9576,23 +8172,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_46.fasta</t>
+          <t>label_UMGS1793_36.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.705789729100342e-06</v>
+        <v>4.779050413211157e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>1.366619633345586e-07</v>
+        <v>0.002619334890533162</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01258232380133282</v>
+        <v>7.518888426023411e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9874098337469749</v>
+        <v>0.9973049983201652</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9874098337469749</v>
+        <v>0.9973049983201652</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -9603,23 +8199,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_49.fasta</t>
+          <t>label_UMGS1793_39.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.905015828973478e-05</v>
+        <v>2.173711878933077e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001677531469136367</v>
+        <v>9.744074369896086e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001295814614259814</v>
+        <v>2.918628162768008e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9996636152333707</v>
+        <v>0.9999588959321235</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9996636152333707</v>
+        <v>0.9999588959321235</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -9630,23 +8226,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_6.fasta</t>
+          <t>label_UMGS1793_44.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.436485753105e-07</v>
+        <v>3.316071702968935e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001366538301700045</v>
+        <v>7.284290846456918e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001701551057798654</v>
+        <v>2.867851557303925e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>0.998161351463456</v>
+        <v>0.9999705598946251</v>
       </c>
       <c r="F41" t="n">
-        <v>0.998161351463456</v>
+        <v>0.9999705598946251</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -9657,23 +8253,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_60.fasta</t>
+          <t>label_UMGS1793_45.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.217236551091711e-05</v>
+        <v>2.680734088422151e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>1.941612755830774e-05</v>
+        <v>0.0003257061300102451</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001355126743735567</v>
+        <v>0.0001399114312927542</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9986032847631952</v>
+        <v>0.9995341143652881</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9986032847631952</v>
+        <v>0.9995341143652881</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -9684,23 +8280,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_69.fasta</t>
+          <t>label_UMGS1793_50.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.773829924577429e-05</v>
+        <v>2.155380238801552e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002187799031636274</v>
+        <v>4.490580140209412e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01442253100294395</v>
+        <v>0.001717692788766415</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9853309507946467</v>
+        <v>0.9982352460295927</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9853309507946467</v>
+        <v>0.9982352460295927</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -9711,23 +8307,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_9.fasta</t>
+          <t>label_UMGS1793_57.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.293287328073595e-07</v>
+        <v>3.112930847309886e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>9.618212335775893e-06</v>
+        <v>0.0001413536592194839</v>
       </c>
       <c r="D44" t="n">
-        <v>4.82401785791173e-05</v>
+        <v>0.0006875598250602648</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9999412122803524</v>
+        <v>0.9991679735848729</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9999412122803524</v>
+        <v>0.9991679735848729</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -9738,23 +8334,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_10.fasta</t>
+          <t>label_UMGS1793_64.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.226787255987812e-07</v>
+        <v>9.710315702676608e-10</v>
       </c>
       <c r="C45" t="n">
-        <v>1.90924311220595e-07</v>
+        <v>0.0002020760403711558</v>
       </c>
       <c r="D45" t="n">
-        <v>1.535237665565782e-05</v>
+        <v>0.004856841832761767</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9999843340203075</v>
+        <v>0.9949410811558355</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999843340203075</v>
+        <v>0.9949410811558355</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -9765,23 +8361,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_24.fasta</t>
+          <t>label_UMGS1793_65.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.246401182836781e-06</v>
+        <v>2.561374526816072e-12</v>
       </c>
       <c r="C46" t="n">
-        <v>7.691817281784043e-06</v>
+        <v>4.377156690216318e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001375464656636249</v>
+        <v>0.01099586402288954</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9998535153158716</v>
+        <v>0.98900369825888</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9998535153158716</v>
+        <v>0.98900369825888</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -9792,23 +8388,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_28.fasta</t>
+          <t>label_UMGS1793_68.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.209443327131602e-06</v>
+        <v>1.404471178789839e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>7.595822777427759e-06</v>
+        <v>0.0004011045292129861</v>
       </c>
       <c r="D47" t="n">
-        <v>2.107239991549827e-05</v>
+        <v>0.00395866772087897</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999701223339799</v>
+        <v>0.9956402137051963</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999701223339799</v>
+        <v>0.9956402137051963</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -9819,23 +8415,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_34.fasta</t>
+          <t>label_UMGS1793_7.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.135111946905869e-06</v>
+        <v>9.54068245272286e-08</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002055421864536881</v>
+        <v>2.067673359985299e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>8.203690958903251e-05</v>
+        <v>3.32559220830934e-05</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9997112857920104</v>
+        <v>0.9999645809977323</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9997112857920104</v>
+        <v>0.9999645809977323</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -9846,23 +8442,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_35.fasta</t>
+          <t>label_UMGS1793_0.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.112184537017236e-07</v>
+        <v>2.219962716096713e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>7.36305490337763e-05</v>
+        <v>9.601379233871417e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>1.313040996242136e-05</v>
+        <v>0.0008720227650404111</v>
       </c>
       <c r="E49" t="n">
-        <v>0.99991242782255</v>
+        <v>0.9991270170970139</v>
       </c>
       <c r="F49" t="n">
-        <v>0.99991242782255</v>
+        <v>0.9991270170970139</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -9873,23 +8469,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_36.fasta</t>
+          <t>label_UMGS1793_20.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.779050413211157e-07</v>
+        <v>2.220251835671648e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002619334890533162</v>
+        <v>1.434468216263938e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>7.518888426023411e-05</v>
+        <v>0.0003358874652319668</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9973049983201652</v>
+        <v>0.9996497678525833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9973049983201652</v>
+        <v>0.9996497678525833</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -9900,23 +8496,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_39.fasta</t>
+          <t>label_UMGS1793_26.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.173711878933077e-06</v>
+        <v>2.219989232866273e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>9.744074369896086e-06</v>
+        <v>3.887704436499841e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>2.918628162768008e-05</v>
+        <v>0.0008210821233709527</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9999588959321235</v>
+        <v>0.9991750301721702</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9999588959321235</v>
+        <v>0.9991750301721702</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -9927,23 +8523,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_44.fasta</t>
+          <t>label_UMGS1793_27.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.316071702968935e-08</v>
+        <v>2.220394954748326e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>7.284290846456918e-07</v>
+        <v>8.822981054924825e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>2.867851557303925e-05</v>
+        <v>8.324612288482534e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9999705598946251</v>
+        <v>0.9999079308960381</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9999705598946251</v>
+        <v>0.9999079308960381</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -9954,23 +8550,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_45.fasta</t>
+          <t>label_UMGS1793_29.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.680734088422151e-07</v>
+        <v>2.219808851356444e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0003257061300102451</v>
+        <v>2.146739585736991e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0001399114312927542</v>
+        <v>0.001267129389000177</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9995341143652881</v>
+        <v>0.9987114032151203</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9995341143652881</v>
+        <v>0.9987114032151203</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -9981,23 +8577,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_50.fasta</t>
+          <t>label_UMGS1793_31.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.155380238801552e-06</v>
+        <v>2.219951137122329e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>4.490580140209412e-05</v>
+        <v>0.002132395331173997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001717692788766415</v>
+        <v>0.0004234769863945215</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9982352460295927</v>
+        <v>0.9974441276824093</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9982352460295927</v>
+        <v>0.9974441276824093</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -10008,23 +8604,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_57.fasta</t>
+          <t>label_UMGS1793_33.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.112930847309886e-06</v>
+        <v>2.220201239873367e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0001413536592194839</v>
+        <v>2.530604572105e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0006875598250602648</v>
+        <v>0.000416288509901584</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9991679735848729</v>
+        <v>0.9995584054443551</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9991679735848729</v>
+        <v>0.9995584054443551</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -10035,23 +8631,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_64.fasta</t>
+          <t>label_UMGS1793_41.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.710315702676608e-10</v>
+        <v>2.220101560858626e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0002020760403711558</v>
+        <v>3.180930193515754e-07</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004856841832761767</v>
+        <v>0.0006214170484662592</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9949410811558355</v>
+        <v>0.9993782648584922</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9949410811558355</v>
+        <v>0.9993782648584922</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -10062,23 +8658,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_65.fasta</t>
+          <t>label_UMGS1793_53.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.561374526816072e-12</v>
+        <v>3.985660066915601e-11</v>
       </c>
       <c r="C57" t="n">
-        <v>4.377156690216318e-07</v>
+        <v>0.1901159374533921</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01099586402288954</v>
+        <v>0.3125327122782854</v>
       </c>
       <c r="E57" t="n">
-        <v>0.98900369825888</v>
+        <v>0.4973513502284658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.98900369825888</v>
+        <v>0.4973513502284658</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -10089,23 +8685,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_68.fasta</t>
+          <t>label_UMGS1793_56.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.404471178789839e-08</v>
+        <v>2.220199678030542e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0004011045292129861</v>
+        <v>2.008521156966857e-07</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00395866772087897</v>
+        <v>0.0004442147286934112</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9956402137051963</v>
+        <v>0.9995555844191686</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9956402137051963</v>
+        <v>0.9995555844191686</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -10116,23 +8712,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_7.fasta</t>
+          <t>label_UMGS1793_62.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9.54068245272286e-08</v>
+        <v>2.219825896805507e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>2.067673359985299e-06</v>
+        <v>1.307751771123501e-08</v>
       </c>
       <c r="D59" t="n">
-        <v>3.32559220830934e-05</v>
+        <v>0.009795220497281784</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999645809977323</v>
+        <v>0.9902047664251783</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9999645809977323</v>
+        <v>0.9902047664251783</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -10143,23 +8739,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_0.fasta</t>
+          <t>label_UMGS1793_66.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.219962716096713e-14</v>
+        <v>2.219811116115527e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>9.601379233871417e-07</v>
+        <v>1.354243614771505e-08</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0008720227650404111</v>
+        <v>0.003423254507987737</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9991270170970139</v>
+        <v>0.9965767319495539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9991270170970139</v>
+        <v>0.9965767319495539</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -10170,23 +8766,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_20.fasta</t>
+          <t>label_UMGS1793_70.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.220251835671648e-14</v>
+        <v>1.476673147686718e-10</v>
       </c>
       <c r="C61" t="n">
-        <v>1.434468216263938e-05</v>
+        <v>0.1964852988614175</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0003358874652319668</v>
+        <v>0.3042348884667747</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9996497678525833</v>
+        <v>0.4992798125241404</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9996497678525833</v>
+        <v>0.4992798125241404</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -10197,23 +8793,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_26.fasta</t>
+          <t>label_UMGS1793_11.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.219989232866273e-14</v>
+        <v>7.566550407377782e-13</v>
       </c>
       <c r="C62" t="n">
-        <v>3.887704436499841e-06</v>
+        <v>0.003362074208395918</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0008210821233709527</v>
+        <v>0.002517568681947904</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9991750301721702</v>
+        <v>0.9941203571088996</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9991750301721702</v>
+        <v>0.9941203571088996</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -10224,23 +8820,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_27.fasta</t>
+          <t>label_UMGS1793_14.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.220394954748326e-14</v>
+        <v>9.59802826307015e-11</v>
       </c>
       <c r="C63" t="n">
-        <v>8.822981054924825e-06</v>
+        <v>2.413203638605083e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>8.324612288482534e-05</v>
+        <v>0.001338222428300136</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9999079308960381</v>
+        <v>0.9986376454393335</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9999079308960381</v>
+        <v>0.9986376454393335</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -10251,23 +8847,23 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_29.fasta</t>
+          <t>label_UMGS1793_15.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.219808851356444e-14</v>
+        <v>8.472034784343791e-09</v>
       </c>
       <c r="C64" t="n">
-        <v>2.146739585736991e-05</v>
+        <v>2.317318234776299e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001267129389000177</v>
+        <v>0.0001121425433959402</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9987114032151203</v>
+        <v>0.9998876172527458</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9987114032151203</v>
+        <v>0.9998876172527458</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -10278,23 +8874,23 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_31.fasta</t>
+          <t>label_UMGS1793_16.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.219951137122329e-14</v>
+        <v>3.612643629582561e-10</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002132395331173997</v>
+        <v>6.179475668083074e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0004234769863945215</v>
+        <v>0.0004043309163140693</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9974441276824093</v>
+        <v>0.9995894892467536</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9974441276824093</v>
+        <v>0.9995894892467536</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -10305,23 +8901,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_33.fasta</t>
+          <t>label_UMGS1793_21.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.220201239873367e-14</v>
+        <v>2.168599650454413e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>2.530604572105e-05</v>
+        <v>1.8797010300342e-07</v>
       </c>
       <c r="D66" t="n">
-        <v>0.000416288509901584</v>
+        <v>0.0007461252993527914</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9995584054443551</v>
+        <v>0.9992536650445477</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9995584054443551</v>
+        <v>0.9992536650445477</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -10332,23 +8928,23 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_41.fasta</t>
+          <t>label_UMGS1793_3.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.220101560858626e-14</v>
+        <v>1.245719513106769e-13</v>
       </c>
       <c r="C67" t="n">
-        <v>3.180930193515754e-07</v>
+        <v>9.561303608682723e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0006214170484662592</v>
+        <v>0.003332990041640007</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9993782648584922</v>
+        <v>0.9965713969221486</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9993782648584922</v>
+        <v>0.9965713969221486</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -10359,23 +8955,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_53.fasta</t>
+          <t>label_UMGS1793_38.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.985660066915601e-11</v>
+        <v>1.67273183519622e-08</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1901159374533921</v>
+        <v>0.003151359554930488</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3125327122782854</v>
+        <v>0.0005957935248271153</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4973513502284658</v>
+        <v>0.996252830192924</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4973513502284658</v>
+        <v>0.996252830192924</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -10386,23 +8982,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_56.fasta</t>
+          <t>label_UMGS1793_42.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.220199678030542e-14</v>
+        <v>4.972948113338091e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>2.008521156966857e-07</v>
+        <v>0.00863658332377402</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0004442147286934112</v>
+        <v>7.002398638796049e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9995555844191686</v>
+        <v>0.9912933429603569</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9995555844191686</v>
+        <v>0.9912933429603569</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -10413,23 +9009,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_62.fasta</t>
+          <t>label_UMGS1793_43.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.219825896805507e-14</v>
+        <v>1.063905751802531e-07</v>
       </c>
       <c r="C70" t="n">
-        <v>1.307751771123501e-08</v>
+        <v>1.864847820743203e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.009795220497281784</v>
+        <v>0.00011403638148006</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9902047664251783</v>
+        <v>0.9998672087497372</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9902047664251783</v>
+        <v>0.9998672087497372</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -10440,23 +9036,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_66.fasta</t>
+          <t>label_UMGS1793_5.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.219811116115527e-14</v>
+        <v>7.080671565577859e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>1.354243614771505e-08</v>
+        <v>0.000437078348671793</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003423254507987737</v>
+        <v>0.0006910916390204171</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9965767319495539</v>
+        <v>0.9988718300115997</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9965767319495539</v>
+        <v>0.9988718300115997</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -10467,23 +9063,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_70.fasta</t>
+          <t>label_UMGS1793_51.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.476673147686718e-10</v>
+        <v>4.522035954176121e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1964852988614175</v>
+        <v>3.922918078362148e-09</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3042348884667747</v>
+        <v>0.0005581763130481482</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4992798125241404</v>
+        <v>0.9994413675604382</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4992798125241404</v>
+        <v>0.9994413675604382</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -10494,23 +9090,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_11.fasta</t>
+          <t>label_UMGS1793_52.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7.566550407377782e-13</v>
+        <v>1.248543142020715e-07</v>
       </c>
       <c r="C73" t="n">
-        <v>0.003362074208395918</v>
+        <v>0.0007292228073695484</v>
       </c>
       <c r="D73" t="n">
-        <v>0.002517568681947904</v>
+        <v>0.001151317301818255</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9941203571088996</v>
+        <v>0.9981193350364981</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9941203571088996</v>
+        <v>0.9981193350364981</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -10521,23 +9117,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_14.fasta</t>
+          <t>label_UMGS1793_55.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.59802826307015e-11</v>
+        <v>5.790988178917451e-09</v>
       </c>
       <c r="C74" t="n">
-        <v>2.413203638605083e-05</v>
+        <v>1.148270614365673e-10</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001338222428300136</v>
+        <v>0.0008137080288655811</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9986376454393335</v>
+        <v>0.9991862860653192</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9986376454393335</v>
+        <v>0.9991862860653192</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -10548,23 +9144,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_15.fasta</t>
+          <t>label_UMGS1793_63.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>8.472034784343791e-09</v>
+        <v>6.211335705233603e-06</v>
       </c>
       <c r="C75" t="n">
-        <v>2.317318234776299e-07</v>
+        <v>8.252271630137601e-08</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0001121425433959402</v>
+        <v>0.00174858199579506</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9998876172527458</v>
+        <v>0.9982451241457834</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9998876172527458</v>
+        <v>0.9982451241457834</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -10575,23 +9171,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_16.fasta</t>
+          <t>label_UMGS1793_67.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.612643629582561e-10</v>
+        <v>6.400887556648906e-10</v>
       </c>
       <c r="C76" t="n">
-        <v>6.179475668083074e-06</v>
+        <v>1.252785078652401e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0004043309163140693</v>
+        <v>0.004671109346893955</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9995894892467536</v>
+        <v>0.9953276372279387</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9995894892467536</v>
+        <v>0.9953276372279387</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -10602,322 +9198,25 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1793_21.fasta</t>
+          <t>label_UMGS1793_8.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.168599650454413e-08</v>
+        <v>1.781996216096405e-12</v>
       </c>
       <c r="C77" t="n">
-        <v>1.8797010300342e-07</v>
+        <v>3.883391371961654e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0007461252993527914</v>
+        <v>0.003553542645419126</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9992536650445477</v>
+        <v>0.9964425739614269</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9992536650445477</v>
+        <v>0.9964425739614269</v>
       </c>
       <c r="G77" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_3.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1.245719513106769e-13</v>
-      </c>
-      <c r="C78" t="n">
-        <v>9.561303608682723e-05</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.003332990041640007</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.9965713969221486</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.9965713969221486</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_38.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1.67273183519622e-08</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.003151359554930488</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.0005957935248271153</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.996252830192924</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.996252830192924</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_42.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>4.972948113338091e-08</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.00863658332377402</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7.002398638796049e-05</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9912933429603569</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.9912933429603569</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_43.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1.063905751802531e-07</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.864847820743203e-05</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.00011403638148006</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.9998672087497372</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.9998672087497372</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_5.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>7.080671565577859e-13</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.000437078348671793</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0006910916390204171</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9988718300115997</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.9988718300115997</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_51.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>4.522035954176121e-07</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.922918078362148e-09</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.0005581763130481482</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9994413675604382</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.9994413675604382</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_52.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1.248543142020715e-07</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.0007292228073695484</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.001151317301818255</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9981193350364981</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.9981193350364981</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_55.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>5.790988178917451e-09</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.148270614365673e-10</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.0008137080288655811</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.9991862860653192</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.9991862860653192</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_63.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>6.211335705233603e-06</v>
-      </c>
-      <c r="C86" t="n">
-        <v>8.252271630137601e-08</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.00174858199579506</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.9982451241457834</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.9982451241457834</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_67.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>6.400887556648906e-10</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.252785078652401e-06</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.004671109346893955</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.9953276372279387</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.9953276372279387</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>s__Succinivibrio sp900555115</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1793_8.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1.781996216096405e-12</v>
-      </c>
-      <c r="C88" t="n">
-        <v>3.883391371961654e-06</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.003553542645419126</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.9964425739614269</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.9964425739614269</v>
-      </c>
-      <c r="G88" t="inlineStr">
         <is>
           <t>s__Succinivibrio sp900555115</t>
         </is>
